--- a/Arquivo/emplacamento.xlsx
+++ b/Arquivo/emplacamento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Estat\DESEMP23\ArquivosParaSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D33B56-BF4D-4201-9D45-DDF970C17EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA30E86-29B8-4216-AA42-5431648C3421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1281,9 +1281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1321,9 +1321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1356,26 +1356,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1408,26 +1391,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1691,8 +1657,8 @@
   </sheetPr>
   <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1796,7 @@
         <v>149064</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>161611</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -1851,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>693417</v>
+        <v>855028</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -1876,7 +1842,7 @@
         <v>139615</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>152415</v>
       </c>
       <c r="J8" s="21">
         <v>0</v>
@@ -1897,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>643077</v>
+        <v>795492</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -1922,7 +1888,7 @@
         <v>110168</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>123321</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -1943,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>521583</v>
+        <v>644904</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1968,7 +1934,7 @@
         <v>29447</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>29094</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -1989,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>121494</v>
+        <v>150588</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -2014,7 +1980,7 @@
         <v>7529</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>7422</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -2035,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>40798</v>
+        <v>48220</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -2060,7 +2026,7 @@
         <v>124</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J12" s="15">
         <v>0</v>
@@ -2081,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>457</v>
+        <v>529</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -2106,7 +2072,7 @@
         <v>675</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -2127,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>3716</v>
+        <v>4368</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -2152,7 +2118,7 @@
         <v>721</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -2173,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>3589</v>
+        <v>4234</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -2198,7 +2164,7 @@
         <v>2284</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -2219,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>12066</v>
+        <v>14193</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -2244,7 +2210,7 @@
         <v>3725</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>3926</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -2265,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>20970</v>
+        <v>24896</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -2290,7 +2256,7 @@
         <v>1920</v>
       </c>
       <c r="I17" s="22">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="J17" s="22">
         <v>0</v>
@@ -2311,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="22">
-        <v>9542</v>
+        <v>11316</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -2448,7 +2414,7 @@
         <v>27460</v>
       </c>
       <c r="I26" s="20">
-        <v>0</v>
+        <v>27917</v>
       </c>
       <c r="J26" s="20">
         <v>0</v>
@@ -2469,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="20">
-        <v>115612</v>
+        <v>143529</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
@@ -2494,7 +2460,7 @@
         <v>26766</v>
       </c>
       <c r="I27" s="21">
-        <v>0</v>
+        <v>27455</v>
       </c>
       <c r="J27" s="21">
         <v>0</v>
@@ -2515,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="21">
-        <v>111741</v>
+        <v>139196</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
@@ -2540,7 +2506,7 @@
         <v>17340</v>
       </c>
       <c r="I28" s="15">
-        <v>0</v>
+        <v>18716</v>
       </c>
       <c r="J28" s="15">
         <v>0</v>
@@ -2561,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="21">
-        <v>70095</v>
+        <v>88811</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -2586,7 +2552,7 @@
         <v>9426</v>
       </c>
       <c r="I29" s="15">
-        <v>0</v>
+        <v>8739</v>
       </c>
       <c r="J29" s="15">
         <v>0</v>
@@ -2607,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="21">
-        <v>41646</v>
+        <v>50385</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -2632,7 +2598,7 @@
         <v>694</v>
       </c>
       <c r="I30" s="21">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="J30" s="21">
         <v>0</v>
@@ -2653,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="21">
-        <v>3865</v>
+        <v>4327</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -2678,7 +2644,7 @@
         <v>649</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="J31" s="15">
         <v>0</v>
@@ -2699,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="21">
-        <v>3602</v>
+        <v>4042</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
@@ -2724,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="I32" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="15">
         <v>0</v>
@@ -2745,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="21">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
@@ -2770,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J33" s="15">
         <v>0</v>
@@ -2791,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="21">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -2816,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="15">
         <v>0</v>
@@ -2837,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
@@ -2862,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="I35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="15">
         <v>0</v>
@@ -2883,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
@@ -3066,7 +3032,7 @@
         <v>176524</v>
       </c>
       <c r="I45" s="20">
-        <v>0</v>
+        <v>189528</v>
       </c>
       <c r="J45" s="20">
         <v>0</v>
@@ -3087,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="20">
-        <v>809029</v>
+        <v>998557</v>
       </c>
       <c r="Q45" s="3"/>
     </row>
@@ -3112,7 +3078,7 @@
         <v>166381</v>
       </c>
       <c r="I46" s="21">
-        <v>0</v>
+        <v>179870</v>
       </c>
       <c r="J46" s="21">
         <v>0</v>
@@ -3133,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="21">
-        <v>754818</v>
+        <v>934688</v>
       </c>
       <c r="Q46" s="3"/>
     </row>
@@ -3158,7 +3124,7 @@
         <v>127508</v>
       </c>
       <c r="I47" s="15">
-        <v>0</v>
+        <v>142037</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -3179,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="15">
-        <v>591678</v>
+        <v>733715</v>
       </c>
       <c r="Q47" s="3"/>
     </row>
@@ -3204,7 +3170,7 @@
         <v>38873</v>
       </c>
       <c r="I48" s="15">
-        <v>0</v>
+        <v>37833</v>
       </c>
       <c r="J48" s="15">
         <v>0</v>
@@ -3225,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <v>163140</v>
+        <v>200973</v>
       </c>
       <c r="Q48" s="3"/>
     </row>
@@ -3250,7 +3216,7 @@
         <v>8223</v>
       </c>
       <c r="I49" s="21">
-        <v>0</v>
+        <v>7884</v>
       </c>
       <c r="J49" s="21">
         <v>0</v>
@@ -3271,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="21">
-        <v>44663</v>
+        <v>52547</v>
       </c>
       <c r="Q49" s="3"/>
     </row>
@@ -3296,7 +3262,7 @@
         <v>773</v>
       </c>
       <c r="I50" s="15">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="J50" s="15">
         <v>0</v>
@@ -3317,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <v>4059</v>
+        <v>4571</v>
       </c>
       <c r="Q50" s="3"/>
     </row>
@@ -3342,7 +3308,7 @@
         <v>698</v>
       </c>
       <c r="I51" s="15">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="J51" s="15">
         <v>0</v>
@@ -3363,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <v>3887</v>
+        <v>4545</v>
       </c>
       <c r="Q51" s="3"/>
     </row>
@@ -3388,7 +3354,7 @@
         <v>741</v>
       </c>
       <c r="I52" s="15">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="J52" s="15">
         <v>0</v>
@@ -3409,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <v>3659</v>
+        <v>4317</v>
       </c>
       <c r="Q52" s="3"/>
     </row>
@@ -3434,7 +3400,7 @@
         <v>2284</v>
       </c>
       <c r="I53" s="15">
-        <v>0</v>
+        <v>2129</v>
       </c>
       <c r="J53" s="15">
         <v>0</v>
@@ -3455,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <v>12074</v>
+        <v>14203</v>
       </c>
       <c r="Q53" s="3"/>
     </row>
@@ -3480,7 +3446,7 @@
         <v>3727</v>
       </c>
       <c r="I54" s="15">
-        <v>0</v>
+        <v>3927</v>
       </c>
       <c r="J54" s="15">
         <v>0</v>
@@ -3501,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <v>20984</v>
+        <v>24911</v>
       </c>
       <c r="Q54" s="3"/>
     </row>
@@ -3526,7 +3492,7 @@
         <v>1920</v>
       </c>
       <c r="I55" s="22">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="J55" s="22">
         <v>0</v>
@@ -3547,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="43">
-        <v>9548</v>
+        <v>11322</v>
       </c>
       <c r="Q55" s="3"/>
     </row>
@@ -3710,7 +3676,7 @@
         <v>15.555958396591965</v>
       </c>
       <c r="I63" s="55">
-        <v>0</v>
+        <v>14.729749693976615</v>
       </c>
       <c r="J63" s="55">
         <v>0</v>
@@ -3731,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="55">
-        <v>14.290217037955378</v>
+        <v>14.37364116419994</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
@@ -3790,7 +3756,7 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,7 +3883,7 @@
         <v>126906</v>
       </c>
       <c r="I7" s="34">
-        <v>0</v>
+        <v>141433</v>
       </c>
       <c r="J7" s="34">
         <v>0</v>
@@ -3938,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="35">
-        <v>588693</v>
+        <v>730126</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
@@ -3963,7 +3929,7 @@
         <v>62078</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>79656</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -3984,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>313279</v>
+        <v>392935</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -4009,7 +3975,7 @@
         <v>62149</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>59262</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -4030,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>263800</v>
+        <v>323062</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -4055,7 +4021,7 @@
         <v>2679</v>
       </c>
       <c r="I10" s="33">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="J10" s="33">
         <v>0</v>
@@ -4076,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="33">
-        <v>11614</v>
+        <v>14129</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -4205,7 +4171,7 @@
         <v>48.916520889477248</v>
       </c>
       <c r="I19" s="61">
-        <v>0</v>
+        <v>56.320660666181155</v>
       </c>
       <c r="J19" s="61">
         <v>0</v>
@@ -4226,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="61">
-        <v>53.216022612804977</v>
+        <v>53.81742329406157</v>
       </c>
     </row>
     <row r="20" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4250,7 +4216,7 @@
         <v>48.972467810820611</v>
       </c>
       <c r="I20" s="29">
-        <v>0</v>
+        <v>41.901112187396151</v>
       </c>
       <c r="J20" s="29">
         <v>0</v>
@@ -4271,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="29">
-        <v>44.81113245783456</v>
+        <v>44.247431265288455</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4295,7 +4261,7 @@
         <v>2.1110112997021417</v>
       </c>
       <c r="I21" s="62">
-        <v>0</v>
+        <v>1.7782271464226878</v>
       </c>
       <c r="J21" s="62">
         <v>0</v>
@@ -4316,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="62">
-        <v>1.9728449293604646</v>
+        <v>1.93514544064997</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -4340,8 +4306,8 @@
   </sheetPr>
   <dimension ref="B2:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,7 +4454,7 @@
         <v>5052</v>
       </c>
       <c r="I7" s="101">
-        <v>0</v>
+        <v>4710</v>
       </c>
       <c r="J7" s="101">
         <v>0</v>
@@ -4509,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="101">
-        <v>19742</v>
+        <v>24452</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4533,7 +4499,7 @@
         <v>610</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -4554,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>3142</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4578,7 +4544,7 @@
         <v>5821</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>5607</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -4599,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>22863</v>
+        <v>28470</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,7 +4589,7 @@
         <v>136097</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>151901</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -4644,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="42">
-        <v>625199</v>
+        <v>777100</v>
       </c>
     </row>
     <row r="11" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4634,7 @@
         <v>18801</v>
       </c>
       <c r="I11" s="41">
-        <v>0</v>
+        <v>17029</v>
       </c>
       <c r="J11" s="41">
         <v>0</v>
@@ -4689,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="33">
-        <v>83872</v>
+        <v>100901</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -4848,7 +4814,7 @@
         <v>3.0364043971366921</v>
       </c>
       <c r="I21" s="61">
-        <v>0</v>
+        <v>2.6186306396464012</v>
       </c>
       <c r="J21" s="61">
         <v>0</v>
@@ -4869,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="61">
-        <v>2.6154649200204552</v>
+        <v>2.6160741128275578</v>
       </c>
     </row>
     <row r="22" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4893,7 +4859,7 @@
         <v>0.36662840107945016</v>
       </c>
       <c r="I22" s="29">
-        <v>0</v>
+        <v>0.34359102660328578</v>
       </c>
       <c r="J22" s="29">
         <v>0</v>
@@ -4914,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="29">
-        <v>0.41625928369487747</v>
+        <v>0.40227542386028203</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,7 +4904,7 @@
         <v>3.498596594563081</v>
       </c>
       <c r="I23" s="29">
-        <v>0</v>
+        <v>3.1173380035026272</v>
       </c>
       <c r="J23" s="29">
         <v>0</v>
@@ -4959,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="29">
-        <v>3.0289420761031134</v>
+        <v>3.0459524780059124</v>
       </c>
     </row>
     <row r="24" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4983,7 +4949,7 @@
         <v>81.798402461819563</v>
       </c>
       <c r="I24" s="29">
-        <v>0</v>
+        <v>84.452784032468799</v>
       </c>
       <c r="J24" s="29">
         <v>0</v>
@@ -5004,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="29">
-        <v>82.827781001512946</v>
+        <v>83.140487202613073</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5028,7 +4994,7 @@
         <v>11.299968145401218</v>
       </c>
       <c r="I25" s="62">
-        <v>0</v>
+        <v>9.4676562977788894</v>
       </c>
       <c r="J25" s="62">
         <v>0</v>
@@ -5049,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="62">
-        <v>11.111552718668607</v>
+        <v>10.79521078269317</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -5191,7 +5157,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="40">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J35" s="40">
         <v>0</v>
@@ -5212,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="42">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5236,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="I36" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="40">
         <v>0</v>
@@ -5257,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="42">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,7 +5247,7 @@
         <v>10119</v>
       </c>
       <c r="I37" s="41">
-        <v>0</v>
+        <v>9643</v>
       </c>
       <c r="J37" s="41">
         <v>0</v>
@@ -5302,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="33">
-        <v>53962</v>
+        <v>63605</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -5446,7 +5412,7 @@
         <v>0.21689835354431627</v>
       </c>
       <c r="I47" s="40">
-        <v>0</v>
+        <v>0.14488254165373071</v>
       </c>
       <c r="J47" s="40">
         <v>0</v>
@@ -5467,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="42">
-        <v>0.37815203556473781</v>
+        <v>0.34286251056768013</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5491,7 +5457,7 @@
         <v>1.9718032140392389E-2</v>
       </c>
       <c r="I48" s="40">
-        <v>0</v>
+        <v>6.2092517851598882E-2</v>
       </c>
       <c r="J48" s="40">
         <v>0</v>
@@ -5512,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="42">
-        <v>8.1164339340724201E-2</v>
+        <v>7.8279112001753456E-2</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5536,7 +5502,7 @@
         <v>99.763383614315288</v>
       </c>
       <c r="I49" s="41">
-        <v>0</v>
+        <v>99.793024940494661</v>
       </c>
       <c r="J49" s="41">
         <v>0</v>
@@ -5557,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="33">
-        <v>99.540683625094545</v>
+        <v>99.578858377430564</v>
       </c>
     </row>
   </sheetData>
@@ -5580,7 +5546,7 @@
   <dimension ref="B2:Q146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5719,7 +5685,7 @@
         <v>176524</v>
       </c>
       <c r="J7" s="67">
-        <v>0</v>
+        <v>189528</v>
       </c>
       <c r="K7" s="67">
         <v>0</v>
@@ -5740,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="68">
-        <v>809029</v>
+        <v>998557</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5765,7 +5731,7 @@
         <v>127508</v>
       </c>
       <c r="J8" s="97">
-        <v>0</v>
+        <v>142037</v>
       </c>
       <c r="K8" s="97">
         <v>0</v>
@@ -5786,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="97">
-        <v>591678</v>
+        <v>733715</v>
       </c>
     </row>
     <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5799,19 +5765,19 @@
         <v>102313</v>
       </c>
       <c r="F9" s="102">
-        <v>94515</v>
+        <v>94516</v>
       </c>
       <c r="G9" s="102">
-        <v>144005</v>
+        <v>144011</v>
       </c>
       <c r="H9" s="102">
-        <v>116600</v>
+        <v>116606</v>
       </c>
       <c r="I9" s="102">
-        <v>124444</v>
+        <v>124461</v>
       </c>
       <c r="J9" s="102">
-        <v>0</v>
+        <v>139255</v>
       </c>
       <c r="K9" s="102">
         <v>0</v>
@@ -5832,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="102">
-        <v>581877</v>
+        <v>721162</v>
       </c>
     </row>
     <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,7 +5823,7 @@
         <v>461</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
@@ -5878,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>2280</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5891,19 +5857,19 @@
         <v>905</v>
       </c>
       <c r="F11" s="15">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G11" s="15">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="H11" s="15">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="I11" s="15">
-        <v>1410</v>
+        <v>1427</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
@@ -5924,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="15">
-        <v>5836</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,7 +5915,7 @@
         <v>1312</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="K12" s="15">
         <v>0</v>
@@ -5970,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <v>5257</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,19 +5949,19 @@
         <v>123</v>
       </c>
       <c r="F13" s="15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" s="15">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H13" s="15">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I13" s="15">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K13" s="15">
         <v>0</v>
@@ -6016,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <v>579</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6041,7 +6007,7 @@
         <v>2004</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
+        <v>2836</v>
       </c>
       <c r="K14" s="15">
         <v>0</v>
@@ -6062,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <v>8063</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,7 +6053,7 @@
         <v>1966</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>2779</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
@@ -6108,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="15">
-        <v>7831</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6133,7 +6099,7 @@
         <v>22</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="15">
         <v>0</v>
@@ -6154,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K17" s="15">
         <v>0</v>
@@ -6200,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6225,7 +6191,7 @@
         <v>30108</v>
       </c>
       <c r="J18" s="15">
-        <v>0</v>
+        <v>36197</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
@@ -6246,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <v>147757</v>
+        <v>183954</v>
       </c>
     </row>
     <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6271,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
@@ -6292,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="15">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6317,7 +6283,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K20" s="15">
         <v>0</v>
@@ -6338,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6363,7 +6329,7 @@
         <v>18295</v>
       </c>
       <c r="J21" s="15">
-        <v>0</v>
+        <v>26402</v>
       </c>
       <c r="K21" s="15">
         <v>0</v>
@@ -6384,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="15">
-        <v>94181</v>
+        <v>120583</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6409,7 +6375,7 @@
         <v>11805</v>
       </c>
       <c r="J22" s="15">
-        <v>0</v>
+        <v>9782</v>
       </c>
       <c r="K22" s="15">
         <v>0</v>
@@ -6430,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <v>53531</v>
+        <v>63313</v>
       </c>
     </row>
     <row r="23" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6455,7 +6421,7 @@
         <v>342</v>
       </c>
       <c r="J23" s="15">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="K23" s="15">
         <v>0</v>
@@ -6476,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="15">
-        <v>1079</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="24" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6501,7 +6467,7 @@
         <v>20250</v>
       </c>
       <c r="J24" s="15">
-        <v>0</v>
+        <v>21737</v>
       </c>
       <c r="K24" s="15">
         <v>0</v>
@@ -6522,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="15">
-        <v>99385</v>
+        <v>121122</v>
       </c>
     </row>
     <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6547,7 +6513,7 @@
         <v>6708</v>
       </c>
       <c r="J25" s="15">
-        <v>0</v>
+        <v>6665</v>
       </c>
       <c r="K25" s="15">
         <v>0</v>
@@ -6568,7 +6534,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="15">
-        <v>27446</v>
+        <v>34111</v>
       </c>
     </row>
     <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6593,7 +6559,7 @@
         <v>401</v>
       </c>
       <c r="J26" s="15">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K26" s="15">
         <v>0</v>
@@ -6614,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="15">
-        <v>2246</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6639,7 +6605,7 @@
         <v>332</v>
       </c>
       <c r="J27" s="15">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="K27" s="15">
         <v>0</v>
@@ -6660,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="15">
-        <v>1777</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6685,7 +6651,7 @@
         <v>69</v>
       </c>
       <c r="J28" s="15">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>
@@ -6706,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="15">
-        <v>469</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6731,7 +6697,7 @@
         <v>10897</v>
       </c>
       <c r="J29" s="15">
-        <v>0</v>
+        <v>12412</v>
       </c>
       <c r="K29" s="15">
         <v>0</v>
@@ -6752,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <v>61043</v>
+        <v>73455</v>
       </c>
     </row>
     <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6777,7 +6743,7 @@
         <v>478</v>
       </c>
       <c r="J30" s="15">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="K30" s="15">
         <v>0</v>
@@ -6798,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="15">
-        <v>1976</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6823,7 +6789,7 @@
         <v>27</v>
       </c>
       <c r="J31" s="15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K31" s="15">
         <v>0</v>
@@ -6844,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6869,7 +6835,7 @@
         <v>451</v>
       </c>
       <c r="J32" s="15">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="K32" s="15">
         <v>0</v>
@@ -6890,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="15">
-        <v>1796</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6915,7 +6881,7 @@
         <v>336</v>
       </c>
       <c r="J33" s="15">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="K33" s="15">
         <v>0</v>
@@ -6936,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="15">
-        <v>2066</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6961,7 +6927,7 @@
         <v>5531</v>
       </c>
       <c r="J34" s="15">
-        <v>0</v>
+        <v>4781</v>
       </c>
       <c r="K34" s="15">
         <v>0</v>
@@ -6982,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="15">
-        <v>22974</v>
+        <v>27755</v>
       </c>
     </row>
     <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7007,7 +6973,7 @@
         <v>4500</v>
       </c>
       <c r="J35" s="15">
-        <v>0</v>
+        <v>6001</v>
       </c>
       <c r="K35" s="15">
         <v>0</v>
@@ -7028,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="15">
-        <v>19908</v>
+        <v>25909</v>
       </c>
     </row>
     <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7053,7 +7019,7 @@
         <v>2653</v>
       </c>
       <c r="J36" s="15">
-        <v>0</v>
+        <v>2928</v>
       </c>
       <c r="K36" s="15">
         <v>0</v>
@@ -7074,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="15">
-        <v>9806</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7099,7 +7065,7 @@
         <v>1847</v>
       </c>
       <c r="J37" s="15">
-        <v>0</v>
+        <v>3073</v>
       </c>
       <c r="K37" s="15">
         <v>0</v>
@@ -7120,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="15">
-        <v>10102</v>
+        <v>13175</v>
       </c>
     </row>
     <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7145,7 +7111,7 @@
         <v>5761</v>
       </c>
       <c r="J38" s="15">
-        <v>0</v>
+        <v>8917</v>
       </c>
       <c r="K38" s="15">
         <v>0</v>
@@ -7166,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="15">
-        <v>33617</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7191,7 +7157,7 @@
         <v>12559</v>
       </c>
       <c r="J39" s="15">
-        <v>0</v>
+        <v>11761</v>
       </c>
       <c r="K39" s="15">
         <v>0</v>
@@ -7212,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="15">
-        <v>55214</v>
+        <v>66975</v>
       </c>
     </row>
     <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7237,7 +7203,7 @@
         <v>12458</v>
       </c>
       <c r="J40" s="15">
-        <v>0</v>
+        <v>11660</v>
       </c>
       <c r="K40" s="15">
         <v>0</v>
@@ -7258,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="15">
-        <v>54983</v>
+        <v>66643</v>
       </c>
     </row>
     <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7283,7 +7249,7 @@
         <v>101</v>
       </c>
       <c r="J41" s="15">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="K41" s="15">
         <v>0</v>
@@ -7304,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="15">
-        <v>231</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7329,7 +7295,7 @@
         <v>22698</v>
       </c>
       <c r="J42" s="15">
-        <v>0</v>
+        <v>24503</v>
       </c>
       <c r="K42" s="15">
         <v>0</v>
@@ -7350,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="15">
-        <v>90987</v>
+        <v>115490</v>
       </c>
     </row>
     <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7363,19 +7329,19 @@
         <v>1573</v>
       </c>
       <c r="F43" s="43">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G43" s="43">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="H43" s="43">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="I43" s="43">
-        <v>3064</v>
+        <v>3047</v>
       </c>
       <c r="J43" s="43">
-        <v>0</v>
+        <v>2782</v>
       </c>
       <c r="K43" s="43">
         <v>0</v>
@@ -7396,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="43">
-        <v>9801</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7421,7 +7387,7 @@
         <v>38873</v>
       </c>
       <c r="J44" s="93">
-        <v>0</v>
+        <v>37833</v>
       </c>
       <c r="K44" s="93">
         <v>0</v>
@@ -7442,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="93">
-        <v>163140</v>
+        <v>200973</v>
       </c>
     </row>
     <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7452,7 +7418,7 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="21">
-        <v>26465</v>
+        <v>26464</v>
       </c>
       <c r="F45" s="21">
         <v>23742</v>
@@ -7464,10 +7430,10 @@
         <v>32997</v>
       </c>
       <c r="I45" s="21">
-        <v>38523</v>
+        <v>38554</v>
       </c>
       <c r="J45" s="21">
-        <v>0</v>
+        <v>37612</v>
       </c>
       <c r="K45" s="21">
         <v>0</v>
@@ -7488,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="21">
-        <v>161414</v>
+        <v>199056</v>
       </c>
     </row>
     <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7513,7 +7479,7 @@
         <v>11</v>
       </c>
       <c r="J46" s="15">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K46" s="15">
         <v>0</v>
@@ -7534,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="15">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7556,10 +7522,10 @@
         <v>13797</v>
       </c>
       <c r="I47" s="15">
-        <v>16427</v>
+        <v>16458</v>
       </c>
       <c r="J47" s="15">
-        <v>0</v>
+        <v>16421</v>
       </c>
       <c r="K47" s="15">
         <v>0</v>
@@ -7580,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="15">
-        <v>71791</v>
+        <v>88243</v>
       </c>
     </row>
     <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7602,10 +7568,10 @@
         <v>210</v>
       </c>
       <c r="I48" s="15">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="J48" s="15">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="K48" s="15">
         <v>0</v>
@@ -7626,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="15">
-        <v>1410</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="49" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7617,7 @@
         <v>16153</v>
       </c>
       <c r="J49" s="15">
-        <v>0</v>
+        <v>16009</v>
       </c>
       <c r="K49" s="15">
         <v>0</v>
@@ -7672,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="15">
-        <v>70381</v>
+        <v>86390</v>
       </c>
     </row>
     <row r="50" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7697,7 +7663,7 @@
         <v>2123</v>
       </c>
       <c r="J50" s="15">
-        <v>0</v>
+        <v>1879</v>
       </c>
       <c r="K50" s="15">
         <v>0</v>
@@ -7718,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="15">
-        <v>9083</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7728,7 +7694,7 @@
         <v>89</v>
       </c>
       <c r="E51" s="15">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F51" s="15">
         <v>1865</v>
@@ -7743,7 +7709,7 @@
         <v>5973</v>
       </c>
       <c r="J51" s="15">
-        <v>0</v>
+        <v>5402</v>
       </c>
       <c r="K51" s="15">
         <v>0</v>
@@ -7764,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>22521</v>
+        <v>27922</v>
       </c>
     </row>
     <row r="52" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7789,7 +7755,7 @@
         <v>937</v>
       </c>
       <c r="J52" s="15">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="K52" s="15">
         <v>0</v>
@@ -7810,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="15">
-        <v>4269</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7835,7 +7801,7 @@
         <v>260</v>
       </c>
       <c r="J53" s="15">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="K53" s="15">
         <v>0</v>
@@ -7856,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="15">
-        <v>922</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7881,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="15">
         <v>0</v>
@@ -7902,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7927,7 +7893,7 @@
         <v>158</v>
       </c>
       <c r="J55" s="15">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="K55" s="15">
         <v>0</v>
@@ -7948,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="15">
-        <v>778</v>
+        <v>927</v>
       </c>
     </row>
     <row r="56" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7973,7 +7939,7 @@
         <v>536</v>
       </c>
       <c r="J56" s="15">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="K56" s="15">
         <v>0</v>
@@ -7994,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="15">
-        <v>2771</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="57" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8019,7 +7985,7 @@
         <v>810</v>
       </c>
       <c r="J57" s="15">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="K57" s="15">
         <v>0</v>
@@ -8040,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="15">
-        <v>2923</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="58" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8065,7 +8031,7 @@
         <v>410</v>
       </c>
       <c r="J58" s="15">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="K58" s="15">
         <v>0</v>
@@ -8086,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="15">
-        <v>2081</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8111,7 +8077,7 @@
         <v>276</v>
       </c>
       <c r="J59" s="15">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="K59" s="15">
         <v>0</v>
@@ -8132,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="15">
-        <v>1115</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="60" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8157,7 +8123,7 @@
         <v>134</v>
       </c>
       <c r="J60" s="15">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K60" s="15">
         <v>0</v>
@@ -8178,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="15">
-        <v>966</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8203,7 +8169,7 @@
         <v>2197</v>
       </c>
       <c r="J61" s="15">
-        <v>0</v>
+        <v>1653</v>
       </c>
       <c r="K61" s="15">
         <v>0</v>
@@ -8224,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="15">
-        <v>8805</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="62" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8249,7 +8215,7 @@
         <v>3990</v>
       </c>
       <c r="J62" s="15">
-        <v>0</v>
+        <v>3732</v>
       </c>
       <c r="K62" s="15">
         <v>0</v>
@@ -8270,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="15">
-        <v>17811</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="63" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8295,7 +8261,7 @@
         <v>4690</v>
       </c>
       <c r="J63" s="15">
-        <v>0</v>
+        <v>5269</v>
       </c>
       <c r="K63" s="15">
         <v>0</v>
@@ -8316,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="15">
-        <v>17632</v>
+        <v>22901</v>
       </c>
     </row>
     <row r="64" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8326,7 +8292,7 @@
       </c>
       <c r="D64" s="95"/>
       <c r="E64" s="43">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F64" s="43">
         <v>301</v>
@@ -8338,10 +8304,10 @@
         <v>323</v>
       </c>
       <c r="I64" s="43">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="J64" s="43">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="K64" s="43">
         <v>0</v>
@@ -8362,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="33">
-        <v>1726</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="65" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8387,7 +8353,7 @@
         <v>8223</v>
       </c>
       <c r="J65" s="97">
-        <v>0</v>
+        <v>7884</v>
       </c>
       <c r="K65" s="97">
         <v>0</v>
@@ -8408,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="97">
-        <v>44663</v>
+        <v>52547</v>
       </c>
     </row>
     <row r="66" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8433,7 +8399,7 @@
         <v>773</v>
       </c>
       <c r="J66" s="94">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="K66" s="94">
         <v>0</v>
@@ -8454,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="94">
-        <v>4059</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,7 +8445,7 @@
         <v>772</v>
       </c>
       <c r="J67" s="21">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="K67" s="21">
         <v>0</v>
@@ -8500,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="21">
-        <v>4046</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8525,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="21">
         <v>0</v>
@@ -8546,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="Q68" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8571,7 +8537,7 @@
         <v>433</v>
       </c>
       <c r="J69" s="21">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="K69" s="21">
         <v>0</v>
@@ -8592,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="Q69" s="15">
-        <v>2573</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="70" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8617,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70" s="21">
         <v>0</v>
@@ -8638,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8663,7 +8629,7 @@
         <v>65</v>
       </c>
       <c r="J71" s="21">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K71" s="21">
         <v>0</v>
@@ -8684,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="Q71" s="15">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8709,7 +8675,7 @@
         <v>56</v>
       </c>
       <c r="J72" s="15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K72" s="15">
         <v>0</v>
@@ -8730,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="Q72" s="15">
-        <v>157</v>
+        <v>193</v>
       </c>
     </row>
     <row r="73" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8755,7 +8721,7 @@
         <v>209</v>
       </c>
       <c r="J73" s="15">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K73" s="15">
         <v>0</v>
@@ -8776,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="Q73" s="15">
-        <v>984</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="74" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8801,7 +8767,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K74" s="15">
         <v>0</v>
@@ -8822,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="15">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8847,7 +8813,7 @@
         <v>5</v>
       </c>
       <c r="J75" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K75" s="15">
         <v>0</v>
@@ -8868,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="15">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8893,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K76" s="15">
         <v>0</v>
@@ -8914,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8939,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="43">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K77" s="43">
         <v>0</v>
@@ -8960,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="43">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8985,7 +8951,7 @@
         <v>698</v>
       </c>
       <c r="J78" s="94">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="K78" s="94">
         <v>0</v>
@@ -9006,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="94">
-        <v>3887</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="79" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9031,7 +8997,7 @@
         <v>675</v>
       </c>
       <c r="J79" s="21">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="K79" s="21">
         <v>0</v>
@@ -9052,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="21">
-        <v>3711</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="80" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9077,7 +9043,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" s="15">
         <v>0</v>
@@ -9098,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9123,7 +9089,7 @@
         <v>29</v>
       </c>
       <c r="J81" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K81" s="15">
         <v>0</v>
@@ -9144,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="15">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9169,7 +9135,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="15">
         <v>0</v>
@@ -9190,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9215,7 +9181,7 @@
         <v>90</v>
       </c>
       <c r="J83" s="15">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K83" s="15">
         <v>0</v>
@@ -9236,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="15">
-        <v>443</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,7 +9227,7 @@
         <v>235</v>
       </c>
       <c r="J84" s="15">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="K84" s="15">
         <v>0</v>
@@ -9282,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="15">
-        <v>1010</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="85" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9307,7 +9273,7 @@
         <v>317</v>
       </c>
       <c r="J85" s="15">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="K85" s="15">
         <v>0</v>
@@ -9328,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="15">
-        <v>2081</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="86" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9353,7 +9319,7 @@
         <v>23</v>
       </c>
       <c r="J86" s="43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K86" s="43">
         <v>0</v>
@@ -9374,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="43">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9399,7 +9365,7 @@
         <v>741</v>
       </c>
       <c r="J87" s="94">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="K87" s="94">
         <v>0</v>
@@ -9420,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="94">
-        <v>3659</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="88" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9445,7 +9411,7 @@
         <v>721</v>
       </c>
       <c r="J88" s="21">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="K88" s="21">
         <v>0</v>
@@ -9466,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="21">
-        <v>3584</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="89" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9491,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="15">
         <v>0</v>
@@ -9512,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9629,7 +9595,7 @@
         <v>97</v>
       </c>
       <c r="J92" s="15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K92" s="15">
         <v>0</v>
@@ -9650,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="Q92" s="15">
-        <v>507</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9675,7 +9641,7 @@
         <v>525</v>
       </c>
       <c r="J93" s="15">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="K93" s="15">
         <v>0</v>
@@ -9696,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="Q93" s="15">
-        <v>2475</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="94" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9721,7 +9687,7 @@
         <v>97</v>
       </c>
       <c r="J94" s="15">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K94" s="15">
         <v>0</v>
@@ -9742,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="15">
-        <v>596</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9767,7 +9733,7 @@
         <v>20</v>
       </c>
       <c r="J95" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K95" s="15">
         <v>0</v>
@@ -9788,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="Q95" s="43">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9813,7 +9779,7 @@
         <v>2284</v>
       </c>
       <c r="J96" s="94">
-        <v>0</v>
+        <v>2129</v>
       </c>
       <c r="K96" s="94">
         <v>0</v>
@@ -9834,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="Q96" s="94">
-        <v>12074</v>
+        <v>14203</v>
       </c>
     </row>
     <row r="97" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9859,7 +9825,7 @@
         <v>2283</v>
       </c>
       <c r="J97" s="21">
-        <v>0</v>
+        <v>2129</v>
       </c>
       <c r="K97" s="21">
         <v>0</v>
@@ -9880,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="Q97" s="21">
-        <v>12069</v>
+        <v>14198</v>
       </c>
     </row>
     <row r="98" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9905,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" s="15">
         <v>0</v>
@@ -9926,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9951,7 +9917,7 @@
         <v>57</v>
       </c>
       <c r="J99" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K99" s="15">
         <v>0</v>
@@ -9972,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="Q99" s="15">
-        <v>285</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9997,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="15">
         <v>0</v>
@@ -10018,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10043,7 +10009,7 @@
         <v>401</v>
       </c>
       <c r="J101" s="15">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="K101" s="15">
         <v>0</v>
@@ -10064,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="Q101" s="15">
-        <v>1802</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="102" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10089,7 +10055,7 @@
         <v>1048</v>
       </c>
       <c r="J102" s="15">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="K102" s="15">
         <v>0</v>
@@ -10110,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="Q102" s="15">
-        <v>5318</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="103" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10135,7 +10101,7 @@
         <v>472</v>
       </c>
       <c r="J103" s="15">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="K103" s="15">
         <v>0</v>
@@ -10156,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="15">
-        <v>2855</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="104" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10227,7 +10193,7 @@
         <v>303</v>
       </c>
       <c r="J105" s="15">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="K105" s="15">
         <v>0</v>
@@ -10248,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="15">
-        <v>1799</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="106" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10319,7 +10285,7 @@
         <v>3727</v>
       </c>
       <c r="J107" s="94">
-        <v>0</v>
+        <v>3927</v>
       </c>
       <c r="K107" s="94">
         <v>0</v>
@@ -10340,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="94">
-        <v>20984</v>
+        <v>24911</v>
       </c>
     </row>
     <row r="108" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10365,7 +10331,7 @@
         <v>3725</v>
       </c>
       <c r="J108" s="21">
-        <v>0</v>
+        <v>3927</v>
       </c>
       <c r="K108" s="21">
         <v>0</v>
@@ -10386,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="21">
-        <v>20974</v>
+        <v>24901</v>
       </c>
     </row>
     <row r="109" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10411,7 +10377,7 @@
         <v>548</v>
       </c>
       <c r="J109" s="15">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="K109" s="15">
         <v>0</v>
@@ -10432,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="15">
-        <v>2641</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="110" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10503,7 +10469,7 @@
         <v>176</v>
       </c>
       <c r="J111" s="15">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="K111" s="15">
         <v>0</v>
@@ -10524,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="15">
-        <v>979</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="112" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10549,7 +10515,7 @@
         <v>338</v>
       </c>
       <c r="J112" s="15">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="K112" s="15">
         <v>0</v>
@@ -10570,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="15">
-        <v>2478</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="113" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10641,7 +10607,7 @@
         <v>338</v>
       </c>
       <c r="J114" s="15">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="K114" s="15">
         <v>0</v>
@@ -10662,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="15">
-        <v>2477</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="115" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10687,7 +10653,7 @@
         <v>700</v>
       </c>
       <c r="J115" s="15">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="K115" s="15">
         <v>0</v>
@@ -10708,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="Q115" s="15">
-        <v>5045</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="116" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10733,7 +10699,7 @@
         <v>815</v>
       </c>
       <c r="J116" s="15">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K116" s="15">
         <v>0</v>
@@ -10754,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="15">
-        <v>4181</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="117" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10779,7 +10745,7 @@
         <v>1148</v>
       </c>
       <c r="J117" s="15">
-        <v>0</v>
+        <v>1253</v>
       </c>
       <c r="K117" s="15">
         <v>0</v>
@@ -10800,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="15">
-        <v>5650</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="118" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10871,7 +10837,7 @@
         <v>8223</v>
       </c>
       <c r="J119" s="93">
-        <v>0</v>
+        <v>7884</v>
       </c>
       <c r="K119" s="93">
         <v>0</v>
@@ -10892,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="93">
-        <v>44663</v>
+        <v>52547</v>
       </c>
     </row>
     <row r="120" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10917,7 +10883,7 @@
         <v>8176</v>
       </c>
       <c r="J120" s="21">
-        <v>0</v>
+        <v>7858</v>
       </c>
       <c r="K120" s="21">
         <v>0</v>
@@ -10938,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="21">
-        <v>44384</v>
+        <v>52242</v>
       </c>
     </row>
     <row r="121" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10963,7 +10929,7 @@
         <v>6</v>
       </c>
       <c r="J121" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K121" s="15">
         <v>0</v>
@@ -10984,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="Q121" s="15">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11009,7 +10975,7 @@
         <v>29</v>
       </c>
       <c r="J122" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K122" s="15">
         <v>0</v>
@@ -11030,7 +10996,7 @@
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11055,7 +11021,7 @@
         <v>605</v>
       </c>
       <c r="J123" s="15">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="K123" s="15">
         <v>0</v>
@@ -11076,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <v>2926</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="124" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11101,7 +11067,7 @@
         <v>433</v>
       </c>
       <c r="J124" s="15">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="K124" s="15">
         <v>0</v>
@@ -11122,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <v>2573</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="125" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11147,7 +11113,7 @@
         <v>5</v>
       </c>
       <c r="J125" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K125" s="15">
         <v>0</v>
@@ -11168,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11193,7 +11159,7 @@
         <v>829</v>
       </c>
       <c r="J126" s="15">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="K126" s="15">
         <v>0</v>
@@ -11214,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <v>4025</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="127" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11239,7 +11205,7 @@
         <v>2202</v>
       </c>
       <c r="J127" s="15">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="K127" s="15">
         <v>0</v>
@@ -11260,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <v>11438</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="128" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11377,7 +11343,7 @@
         <v>1586</v>
       </c>
       <c r="J130" s="15">
-        <v>0</v>
+        <v>1417</v>
       </c>
       <c r="K130" s="15">
         <v>0</v>
@@ -11398,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <v>10577</v>
+        <v>11994</v>
       </c>
     </row>
     <row r="131" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11423,7 +11389,7 @@
         <v>209</v>
       </c>
       <c r="J131" s="15">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K131" s="15">
         <v>0</v>
@@ -11444,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <v>984</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="132" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11469,7 +11435,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K132" s="15">
         <v>0</v>
@@ -11490,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="133" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11515,7 +11481,7 @@
         <v>5</v>
       </c>
       <c r="J133" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K133" s="15">
         <v>0</v>
@@ -11536,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11561,7 +11527,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K134" s="15">
         <v>0</v>
@@ -11582,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11607,7 +11573,7 @@
         <v>815</v>
       </c>
       <c r="J135" s="15">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K135" s="15">
         <v>0</v>
@@ -11628,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <v>4181</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="136" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11653,7 +11619,7 @@
         <v>1451</v>
       </c>
       <c r="J136" s="15">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="K136" s="15">
         <v>0</v>
@@ -11674,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="15">
-        <v>7449</v>
+        <v>9011</v>
       </c>
     </row>
     <row r="137" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11699,7 +11665,7 @@
         <v>47</v>
       </c>
       <c r="J137" s="43">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K137" s="43">
         <v>0</v>
@@ -11720,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="43">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11745,7 +11711,7 @@
         <v>1920</v>
       </c>
       <c r="J138" s="93">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="K138" s="93">
         <v>0</v>
@@ -11766,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="93">
-        <v>9548</v>
+        <v>11322</v>
       </c>
     </row>
     <row r="139" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11791,7 +11757,7 @@
         <v>1916</v>
       </c>
       <c r="J139" s="21">
-        <v>0</v>
+        <v>1774</v>
       </c>
       <c r="K139" s="21">
         <v>0</v>
@@ -11812,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="21">
-        <v>9511</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="140" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11837,7 +11803,7 @@
         <v>195</v>
       </c>
       <c r="J140" s="15">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="K140" s="15">
         <v>0</v>
@@ -11858,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="15">
-        <v>1468</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="141" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11883,7 +11849,7 @@
         <v>128</v>
       </c>
       <c r="J141" s="15">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K141" s="15">
         <v>0</v>
@@ -11904,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="15">
-        <v>263</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11929,7 +11895,7 @@
         <v>439</v>
       </c>
       <c r="J142" s="15">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="K142" s="15">
         <v>0</v>
@@ -11950,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="15">
-        <v>2642</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="143" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11975,7 +11941,7 @@
         <v>1060</v>
       </c>
       <c r="J143" s="15">
-        <v>0</v>
+        <v>1021</v>
       </c>
       <c r="K143" s="15">
         <v>0</v>
@@ -11996,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="15">
-        <v>4602</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="144" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12021,7 +11987,7 @@
         <v>20</v>
       </c>
       <c r="J144" s="15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K144" s="15">
         <v>0</v>
@@ -12042,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="15">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="145" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12067,7 +12033,7 @@
         <v>74</v>
       </c>
       <c r="J145" s="15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K145" s="15">
         <v>0</v>
@@ -12088,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="15">
-        <v>436</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12151,7 +12117,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12293,7 +12259,7 @@
         <v>44342</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>36622</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -12314,7 +12280,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>190595</v>
+        <v>227217</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -12339,7 +12305,7 @@
         <v>42614</v>
       </c>
       <c r="I8" s="21">
-        <v>0</v>
+        <v>34550</v>
       </c>
       <c r="J8" s="21">
         <v>0</v>
@@ -12360,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>182256</v>
+        <v>216806</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -12385,7 +12351,7 @@
         <v>35288</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>27583</v>
       </c>
       <c r="J9" s="15">
         <v>0</v>
@@ -12406,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>153028</v>
+        <v>180611</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -12431,7 +12397,7 @@
         <v>7326</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>6967</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -12452,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>29228</v>
+        <v>36195</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -12477,7 +12443,7 @@
         <v>1304</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -12498,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>6773</v>
+        <v>8162</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -12523,7 +12489,7 @@
         <v>85</v>
       </c>
       <c r="I12" s="15">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J12" s="15">
         <v>0</v>
@@ -12544,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>436</v>
+        <v>582</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -12569,7 +12535,7 @@
         <v>155</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -12590,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>972</v>
+        <v>1065</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -12615,7 +12581,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -12636,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -12661,7 +12627,7 @@
         <v>450</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -12682,7 +12648,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>1931</v>
+        <v>2306</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -12707,7 +12673,7 @@
         <v>602</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -12728,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>3016</v>
+        <v>3778</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -12753,7 +12719,7 @@
         <v>424</v>
       </c>
       <c r="I17" s="21">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="J17" s="21">
         <v>0</v>
@@ -12774,7 +12740,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="21">
-        <v>1566</v>
+        <v>2249</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -12799,7 +12765,7 @@
         <v>160</v>
       </c>
       <c r="I18" s="42">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="J18" s="42">
         <v>0</v>
@@ -12820,7 +12786,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <v>575</v>
+        <v>897</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -12845,7 +12811,7 @@
         <v>264</v>
       </c>
       <c r="I19" s="41">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J19" s="41">
         <v>0</v>
@@ -12866,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="33">
-        <v>991</v>
+        <v>1352</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -12884,7 +12850,7 @@
   <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13026,7 +12992,7 @@
         <v>227914</v>
       </c>
       <c r="I8" s="20">
-        <v>0</v>
+        <v>189182</v>
       </c>
       <c r="J8" s="20">
         <v>0</v>
@@ -13047,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="20">
-        <v>942786</v>
+        <v>1131968</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -13072,7 +13038,7 @@
         <v>217575</v>
       </c>
       <c r="I9" s="21">
-        <v>0</v>
+        <v>180204</v>
       </c>
       <c r="J9" s="21">
         <v>0</v>
@@ -13093,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="21">
-        <v>895052</v>
+        <v>1075256</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -13118,7 +13084,7 @@
         <v>175051</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>142612</v>
       </c>
       <c r="J10" s="15">
         <v>0</v>
@@ -13139,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>729016</v>
+        <v>871628</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -13164,7 +13130,7 @@
         <v>42524</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <v>37592</v>
       </c>
       <c r="J11" s="15">
         <v>0</v>
@@ -13185,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="15">
-        <v>166036</v>
+        <v>203628</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -13210,7 +13176,7 @@
         <v>8392</v>
       </c>
       <c r="I12" s="21">
-        <v>0</v>
+        <v>7029</v>
       </c>
       <c r="J12" s="21">
         <v>0</v>
@@ -13231,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="21">
-        <v>40144</v>
+        <v>47173</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -13256,7 +13222,7 @@
         <v>73</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J13" s="15">
         <v>0</v>
@@ -13277,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -13302,7 +13268,7 @@
         <v>1202</v>
       </c>
       <c r="I14" s="15">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="J14" s="15">
         <v>0</v>
@@ -13323,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>6478</v>
+        <v>7236</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -13348,7 +13314,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -13369,7 +13335,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>1358</v>
+        <v>1475</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -13394,7 +13360,7 @@
         <v>2451</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>2083</v>
       </c>
       <c r="J16" s="15">
         <v>0</v>
@@ -13415,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>11182</v>
+        <v>13265</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -13440,7 +13406,7 @@
         <v>4497</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>4036</v>
       </c>
       <c r="J17" s="15">
         <v>0</v>
@@ -13461,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="15">
-        <v>20427</v>
+        <v>24463</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -13486,7 +13452,7 @@
         <v>1947</v>
       </c>
       <c r="I18" s="21">
-        <v>0</v>
+        <v>1949</v>
       </c>
       <c r="J18" s="21">
         <v>0</v>
@@ -13507,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="21">
-        <v>7590</v>
+        <v>9539</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -13532,7 +13498,7 @@
         <v>415</v>
       </c>
       <c r="I19" s="42">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="J19" s="42">
         <v>0</v>
@@ -13553,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="15">
-        <v>1106</v>
+        <v>1624</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -13578,7 +13544,7 @@
         <v>1532</v>
       </c>
       <c r="I20" s="41">
-        <v>0</v>
+        <v>1431</v>
       </c>
       <c r="J20" s="41">
         <v>0</v>
@@ -13599,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="33">
-        <v>6484</v>
+        <v>7915</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -13616,8 +13582,8 @@
   </sheetPr>
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13761,7 +13727,7 @@
         <v>1578</v>
       </c>
       <c r="I7" s="20">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="J7" s="20">
         <v>0</v>
@@ -13782,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>7196</v>
+        <v>8563</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -13945,7 +13911,7 @@
         <v>1193</v>
       </c>
       <c r="I11" s="21">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="J11" s="21">
         <v>0</v>
@@ -13966,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>5870</v>
+        <v>6826</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -13991,7 +13957,7 @@
         <v>385</v>
       </c>
       <c r="I12" s="43">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="J12" s="43">
         <v>0</v>
@@ -14012,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="43">
-        <v>1326</v>
+        <v>1737</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -14111,7 +14077,7 @@
         <v>1065524.6395590352</v>
       </c>
       <c r="I21" s="106">
-        <v>0</v>
+        <v>1001109.4199487215</v>
       </c>
       <c r="J21" s="106">
         <v>0</v>
@@ -14132,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="106">
-        <v>4741422.2896819953</v>
+        <v>5742531.7096307166</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
@@ -14228,7 +14194,7 @@
         <v>100181</v>
       </c>
       <c r="I30" s="106">
-        <v>0</v>
+        <v>99676</v>
       </c>
       <c r="J30" s="106">
         <v>0</v>

--- a/Arquivo/emplacamento.xlsx
+++ b/Arquivo/emplacamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Estat\DESEMP23\ArquivosParaSite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Estat\DESEMP23\ParaSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA30E86-29B8-4216-AA42-5431648C3421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF0B14-E231-417A-A33E-435FD10B46A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="1" r:id="rId1"/>
@@ -1658,7 +1658,7 @@
   <dimension ref="B2:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,25 +1799,25 @@
         <v>161611</v>
       </c>
       <c r="J7" s="20">
-        <v>0</v>
+        <v>195853</v>
       </c>
       <c r="K7" s="20">
-        <v>0</v>
+        <v>173903</v>
       </c>
       <c r="L7" s="20">
-        <v>0</v>
+        <v>167769</v>
       </c>
       <c r="M7" s="20">
-        <v>0</v>
+        <v>183586</v>
       </c>
       <c r="N7" s="20">
-        <v>0</v>
+        <v>176842</v>
       </c>
       <c r="O7" s="20">
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>855028</v>
+        <v>1752981</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -1845,25 +1845,25 @@
         <v>152415</v>
       </c>
       <c r="J8" s="21">
-        <v>0</v>
+        <v>186540</v>
       </c>
       <c r="K8" s="21">
-        <v>0</v>
+        <v>163842</v>
       </c>
       <c r="L8" s="21">
-        <v>0</v>
+        <v>158060</v>
       </c>
       <c r="M8" s="21">
-        <v>0</v>
+        <v>173159</v>
       </c>
       <c r="N8" s="21">
-        <v>0</v>
+        <v>166557</v>
       </c>
       <c r="O8" s="21">
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>795492</v>
+        <v>1643650</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -1891,25 +1891,25 @@
         <v>123321</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>156571</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>130495</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>125316</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>139700</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>135258</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>644904</v>
+        <v>1332244</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -1937,25 +1937,25 @@
         <v>29094</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>29969</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>33347</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>32744</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>33459</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>31299</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>150588</v>
+        <v>311406</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -1983,25 +1983,25 @@
         <v>7422</v>
       </c>
       <c r="J11" s="21">
-        <v>0</v>
+        <v>7811</v>
       </c>
       <c r="K11" s="21">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="L11" s="21">
-        <v>0</v>
+        <v>8207</v>
       </c>
       <c r="M11" s="21">
-        <v>0</v>
+        <v>8845</v>
       </c>
       <c r="N11" s="21">
-        <v>0</v>
+        <v>8699</v>
       </c>
       <c r="O11" s="21">
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>48220</v>
+        <v>90382</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -2029,25 +2029,25 @@
         <v>72</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="O12" s="15">
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>529</v>
+        <v>1046</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -2075,25 +2075,25 @@
         <v>652</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="N13" s="15">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="O13" s="15">
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>4368</v>
+        <v>7973</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -2121,25 +2121,25 @@
         <v>645</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="M14" s="15">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="N14" s="15">
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="O14" s="15">
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>4234</v>
+        <v>7450</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -2149,43 +2149,43 @@
         <v>46</v>
       </c>
       <c r="D15" s="15">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="E15" s="15">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="F15" s="15">
-        <v>2928</v>
+        <v>2951</v>
       </c>
       <c r="G15" s="15">
-        <v>2044</v>
+        <v>2097</v>
       </c>
       <c r="H15" s="15">
-        <v>2284</v>
+        <v>2363</v>
       </c>
       <c r="I15" s="15">
-        <v>2127</v>
+        <v>2211</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="L15" s="15">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="N15" s="15">
-        <v>0</v>
+        <v>2471</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>14193</v>
+        <v>26209</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -2195,43 +2195,43 @@
         <v>47</v>
       </c>
       <c r="D16" s="15">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="E16" s="15">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="F16" s="15">
-        <v>4150</v>
+        <v>4127</v>
       </c>
       <c r="G16" s="15">
-        <v>3540</v>
+        <v>3487</v>
       </c>
       <c r="H16" s="15">
-        <v>3725</v>
+        <v>3646</v>
       </c>
       <c r="I16" s="15">
-        <v>3926</v>
+        <v>3842</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>4138</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>4534</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>4614</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <v>5177</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <v>4588</v>
       </c>
       <c r="O16" s="15">
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>24896</v>
+        <v>47704</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -2259,25 +2259,25 @@
         <v>1774</v>
       </c>
       <c r="J17" s="22">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="K17" s="22">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="L17" s="22">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="M17" s="22">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="N17" s="22">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="O17" s="22">
         <v>0</v>
       </c>
       <c r="P17" s="22">
-        <v>11316</v>
+        <v>18949</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -2417,25 +2417,25 @@
         <v>27917</v>
       </c>
       <c r="J26" s="20">
-        <v>0</v>
+        <v>29741</v>
       </c>
       <c r="K26" s="20">
-        <v>0</v>
+        <v>33840</v>
       </c>
       <c r="L26" s="20">
-        <v>0</v>
+        <v>29970</v>
       </c>
       <c r="M26" s="20">
-        <v>0</v>
+        <v>34262</v>
       </c>
       <c r="N26" s="20">
-        <v>0</v>
+        <v>35807</v>
       </c>
       <c r="O26" s="20">
         <v>0</v>
       </c>
       <c r="P26" s="20">
-        <v>143529</v>
+        <v>307149</v>
       </c>
       <c r="Q26" s="3"/>
     </row>
@@ -2463,25 +2463,25 @@
         <v>27455</v>
       </c>
       <c r="J27" s="21">
-        <v>0</v>
+        <v>29182</v>
       </c>
       <c r="K27" s="21">
-        <v>0</v>
+        <v>33126</v>
       </c>
       <c r="L27" s="21">
-        <v>0</v>
+        <v>29404</v>
       </c>
       <c r="M27" s="21">
-        <v>0</v>
+        <v>33660</v>
       </c>
       <c r="N27" s="21">
-        <v>0</v>
+        <v>35277</v>
       </c>
       <c r="O27" s="21">
         <v>0</v>
       </c>
       <c r="P27" s="21">
-        <v>139196</v>
+        <v>299845</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>18716</v>
       </c>
       <c r="J28" s="15">
-        <v>0</v>
+        <v>20198</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>23005</v>
       </c>
       <c r="L28" s="15">
-        <v>0</v>
+        <v>20401</v>
       </c>
       <c r="M28" s="15">
-        <v>0</v>
+        <v>23498</v>
       </c>
       <c r="N28" s="15">
-        <v>0</v>
+        <v>25460</v>
       </c>
       <c r="O28" s="15">
         <v>0</v>
       </c>
       <c r="P28" s="21">
-        <v>88811</v>
+        <v>201373</v>
       </c>
       <c r="Q28" s="3"/>
     </row>
@@ -2555,25 +2555,25 @@
         <v>8739</v>
       </c>
       <c r="J29" s="15">
-        <v>0</v>
+        <v>8984</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>10121</v>
       </c>
       <c r="L29" s="15">
-        <v>0</v>
+        <v>9003</v>
       </c>
       <c r="M29" s="15">
-        <v>0</v>
+        <v>10162</v>
       </c>
       <c r="N29" s="15">
-        <v>0</v>
+        <v>9817</v>
       </c>
       <c r="O29" s="15">
         <v>0</v>
       </c>
       <c r="P29" s="21">
-        <v>50385</v>
+        <v>98472</v>
       </c>
       <c r="Q29" s="3"/>
     </row>
@@ -2601,25 +2601,25 @@
         <v>462</v>
       </c>
       <c r="J30" s="21">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="K30" s="21">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="L30" s="21">
-        <v>0</v>
+        <v>565</v>
       </c>
       <c r="M30" s="21">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="N30" s="21">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="O30" s="21">
         <v>0</v>
       </c>
       <c r="P30" s="21">
-        <v>4327</v>
+        <v>7297</v>
       </c>
       <c r="Q30" s="3"/>
     </row>
@@ -2647,25 +2647,25 @@
         <v>440</v>
       </c>
       <c r="J31" s="15">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="L31" s="15">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="M31" s="15">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="N31" s="15">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="O31" s="15">
         <v>0</v>
       </c>
       <c r="P31" s="21">
-        <v>4042</v>
+        <v>6782</v>
       </c>
       <c r="Q31" s="3"/>
     </row>
@@ -2693,25 +2693,25 @@
         <v>6</v>
       </c>
       <c r="J32" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K32" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L32" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M32" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N32" s="15">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O32" s="15">
         <v>0</v>
       </c>
       <c r="P32" s="21">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="3"/>
     </row>
@@ -2739,25 +2739,25 @@
         <v>13</v>
       </c>
       <c r="J33" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L33" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M33" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N33" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O33" s="15">
         <v>0</v>
       </c>
       <c r="P33" s="21">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
@@ -2785,25 +2785,25 @@
         <v>2</v>
       </c>
       <c r="J34" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="15">
         <v>0</v>
       </c>
       <c r="M34" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="15">
         <v>0</v>
       </c>
       <c r="P34" s="21">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="3"/>
     </row>
@@ -2831,25 +2831,25 @@
         <v>1</v>
       </c>
       <c r="J35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="15">
         <v>0</v>
       </c>
       <c r="M35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O35" s="15">
         <v>0</v>
       </c>
       <c r="P35" s="21">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q35" s="3"/>
     </row>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="22">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q36" s="3"/>
     </row>
@@ -3035,25 +3035,25 @@
         <v>189528</v>
       </c>
       <c r="J45" s="20">
-        <v>0</v>
+        <v>225594</v>
       </c>
       <c r="K45" s="20">
-        <v>0</v>
+        <v>207743</v>
       </c>
       <c r="L45" s="20">
-        <v>0</v>
+        <v>197739</v>
       </c>
       <c r="M45" s="20">
-        <v>0</v>
+        <v>217848</v>
       </c>
       <c r="N45" s="20">
-        <v>0</v>
+        <v>212649</v>
       </c>
       <c r="O45" s="20">
         <v>0</v>
       </c>
       <c r="P45" s="20">
-        <v>998557</v>
+        <v>2060130</v>
       </c>
       <c r="Q45" s="3"/>
     </row>
@@ -3081,25 +3081,25 @@
         <v>179870</v>
       </c>
       <c r="J46" s="21">
-        <v>0</v>
+        <v>215722</v>
       </c>
       <c r="K46" s="21">
-        <v>0</v>
+        <v>196968</v>
       </c>
       <c r="L46" s="21">
-        <v>0</v>
+        <v>187464</v>
       </c>
       <c r="M46" s="21">
-        <v>0</v>
+        <v>206819</v>
       </c>
       <c r="N46" s="21">
-        <v>0</v>
+        <v>201834</v>
       </c>
       <c r="O46" s="21">
         <v>0</v>
       </c>
       <c r="P46" s="21">
-        <v>934688</v>
+        <v>1943495</v>
       </c>
       <c r="Q46" s="3"/>
     </row>
@@ -3127,25 +3127,25 @@
         <v>142037</v>
       </c>
       <c r="J47" s="15">
-        <v>0</v>
+        <v>176769</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
+        <v>153500</v>
       </c>
       <c r="L47" s="15">
-        <v>0</v>
+        <v>145717</v>
       </c>
       <c r="M47" s="15">
-        <v>0</v>
+        <v>163198</v>
       </c>
       <c r="N47" s="15">
-        <v>0</v>
+        <v>160718</v>
       </c>
       <c r="O47" s="15">
         <v>0</v>
       </c>
       <c r="P47" s="15">
-        <v>733715</v>
+        <v>1533617</v>
       </c>
       <c r="Q47" s="3"/>
     </row>
@@ -3173,25 +3173,25 @@
         <v>37833</v>
       </c>
       <c r="J48" s="15">
-        <v>0</v>
+        <v>38953</v>
       </c>
       <c r="K48" s="15">
-        <v>0</v>
+        <v>43468</v>
       </c>
       <c r="L48" s="15">
-        <v>0</v>
+        <v>41747</v>
       </c>
       <c r="M48" s="15">
-        <v>0</v>
+        <v>43621</v>
       </c>
       <c r="N48" s="15">
-        <v>0</v>
+        <v>41116</v>
       </c>
       <c r="O48" s="15">
         <v>0</v>
       </c>
       <c r="P48" s="15">
-        <v>200973</v>
+        <v>409878</v>
       </c>
       <c r="Q48" s="3"/>
     </row>
@@ -3219,25 +3219,25 @@
         <v>7884</v>
       </c>
       <c r="J49" s="21">
-        <v>0</v>
+        <v>8370</v>
       </c>
       <c r="K49" s="21">
-        <v>0</v>
+        <v>9314</v>
       </c>
       <c r="L49" s="21">
-        <v>0</v>
+        <v>8772</v>
       </c>
       <c r="M49" s="21">
-        <v>0</v>
+        <v>9447</v>
       </c>
       <c r="N49" s="21">
-        <v>0</v>
+        <v>9229</v>
       </c>
       <c r="O49" s="21">
         <v>0</v>
       </c>
       <c r="P49" s="21">
-        <v>52547</v>
+        <v>97679</v>
       </c>
       <c r="Q49" s="3"/>
     </row>
@@ -3265,25 +3265,25 @@
         <v>512</v>
       </c>
       <c r="J50" s="15">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="L50" s="15">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="M50" s="15">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="N50" s="15">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="O50" s="15">
         <v>0</v>
       </c>
       <c r="P50" s="15">
-        <v>4571</v>
+        <v>7828</v>
       </c>
       <c r="Q50" s="3"/>
     </row>
@@ -3311,25 +3311,25 @@
         <v>658</v>
       </c>
       <c r="J51" s="15">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="K51" s="15">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="L51" s="15">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="M51" s="15">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="N51" s="15">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="O51" s="15">
         <v>0</v>
       </c>
       <c r="P51" s="15">
-        <v>4545</v>
+        <v>8268</v>
       </c>
       <c r="Q51" s="3"/>
     </row>
@@ -3357,25 +3357,25 @@
         <v>658</v>
       </c>
       <c r="J52" s="15">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="L52" s="15">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="M52" s="15">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="N52" s="15">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="O52" s="15">
         <v>0</v>
       </c>
       <c r="P52" s="15">
-        <v>4317</v>
+        <v>7623</v>
       </c>
       <c r="Q52" s="3"/>
     </row>
@@ -3385,43 +3385,43 @@
         <v>46</v>
       </c>
       <c r="D53" s="15">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E53" s="15">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="F53" s="15">
-        <v>2930</v>
+        <v>2953</v>
       </c>
       <c r="G53" s="15">
-        <v>2048</v>
+        <v>2101</v>
       </c>
       <c r="H53" s="15">
-        <v>2284</v>
+        <v>2363</v>
       </c>
       <c r="I53" s="15">
-        <v>2129</v>
+        <v>2213</v>
       </c>
       <c r="J53" s="15">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="K53" s="15">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="L53" s="15">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="M53" s="15">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="N53" s="15">
-        <v>0</v>
+        <v>2473</v>
       </c>
       <c r="O53" s="15">
         <v>0</v>
       </c>
       <c r="P53" s="15">
-        <v>14203</v>
+        <v>26227</v>
       </c>
       <c r="Q53" s="3"/>
     </row>
@@ -3431,43 +3431,43 @@
         <v>47</v>
       </c>
       <c r="D54" s="15">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="E54" s="15">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="F54" s="15">
-        <v>4151</v>
+        <v>4128</v>
       </c>
       <c r="G54" s="15">
-        <v>3545</v>
+        <v>3492</v>
       </c>
       <c r="H54" s="15">
-        <v>3727</v>
+        <v>3648</v>
       </c>
       <c r="I54" s="15">
-        <v>3927</v>
+        <v>3843</v>
       </c>
       <c r="J54" s="15">
-        <v>0</v>
+        <v>4139</v>
       </c>
       <c r="K54" s="15">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="L54" s="15">
-        <v>0</v>
+        <v>4614</v>
       </c>
       <c r="M54" s="15">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="N54" s="15">
-        <v>0</v>
+        <v>4599</v>
       </c>
       <c r="O54" s="15">
         <v>0</v>
       </c>
       <c r="P54" s="15">
-        <v>24911</v>
+        <v>47733</v>
       </c>
       <c r="Q54" s="3"/>
     </row>
@@ -3495,25 +3495,25 @@
         <v>1774</v>
       </c>
       <c r="J55" s="22">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="K55" s="22">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="L55" s="22">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="M55" s="22">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="N55" s="22">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="O55" s="22">
         <v>0</v>
       </c>
       <c r="P55" s="43">
-        <v>11322</v>
+        <v>18956</v>
       </c>
       <c r="Q55" s="3"/>
     </row>
@@ -3679,25 +3679,25 @@
         <v>14.729749693976615</v>
       </c>
       <c r="J63" s="55">
-        <v>0</v>
+        <v>13.183417998705641</v>
       </c>
       <c r="K63" s="55">
-        <v>0</v>
+        <v>16.289357523478529</v>
       </c>
       <c r="L63" s="55">
-        <v>0</v>
+        <v>15.156342451413227</v>
       </c>
       <c r="M63" s="55">
-        <v>0</v>
+        <v>15.727479710623921</v>
       </c>
       <c r="N63" s="55">
-        <v>0</v>
+        <v>16.838546148818008</v>
       </c>
       <c r="O63" s="55">
         <v>0</v>
       </c>
       <c r="P63" s="55">
-        <v>14.37364116419994</v>
+        <v>14.90920475892298</v>
       </c>
       <c r="Q63" s="3"/>
     </row>
@@ -3756,7 +3756,7 @@
   <dimension ref="B2:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="34">
-        <v>103164</v>
+        <v>103163</v>
       </c>
       <c r="E7" s="34">
         <v>95313</v>
@@ -3877,7 +3877,7 @@
         <v>145675</v>
       </c>
       <c r="G7" s="34">
-        <v>117635</v>
+        <v>117634</v>
       </c>
       <c r="H7" s="34">
         <v>126906</v>
@@ -3886,25 +3886,25 @@
         <v>141433</v>
       </c>
       <c r="J7" s="34">
-        <v>0</v>
+        <v>175855</v>
       </c>
       <c r="K7" s="34">
-        <v>0</v>
+        <v>152352</v>
       </c>
       <c r="L7" s="34">
-        <v>0</v>
+        <v>143918</v>
       </c>
       <c r="M7" s="34">
-        <v>0</v>
+        <v>160882</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>157640</v>
       </c>
       <c r="O7" s="34">
         <v>0</v>
       </c>
       <c r="P7" s="35">
-        <v>730126</v>
+        <v>1520771</v>
       </c>
       <c r="Q7" s="2"/>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="15">
-        <v>58691</v>
+        <v>58690</v>
       </c>
       <c r="E8" s="15">
         <v>50044</v>
@@ -3923,7 +3923,7 @@
         <v>78204</v>
       </c>
       <c r="G8" s="15">
-        <v>64262</v>
+        <v>64261</v>
       </c>
       <c r="H8" s="15">
         <v>62078</v>
@@ -3932,25 +3932,25 @@
         <v>79656</v>
       </c>
       <c r="J8" s="15">
-        <v>0</v>
+        <v>107931</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>79915</v>
       </c>
       <c r="L8" s="15">
-        <v>0</v>
+        <v>77974</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>89768</v>
       </c>
       <c r="N8" s="15">
-        <v>0</v>
+        <v>85631</v>
       </c>
       <c r="O8" s="15">
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>392935</v>
+        <v>834152</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -3978,25 +3978,25 @@
         <v>59262</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>65292</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>69396</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>63191</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>68044</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>69059</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>323062</v>
+        <v>658044</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -4024,25 +4024,25 @@
         <v>2515</v>
       </c>
       <c r="J10" s="33">
-        <v>0</v>
+        <v>2632</v>
       </c>
       <c r="K10" s="33">
-        <v>0</v>
+        <v>3041</v>
       </c>
       <c r="L10" s="33">
-        <v>0</v>
+        <v>2753</v>
       </c>
       <c r="M10" s="33">
-        <v>0</v>
+        <v>3070</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>2950</v>
       </c>
       <c r="O10" s="33">
         <v>0</v>
       </c>
       <c r="P10" s="33">
-        <v>14129</v>
+        <v>28575</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -4156,7 +4156,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="103">
-        <v>56.890969718118725</v>
+        <v>56.890551845138269</v>
       </c>
       <c r="E19" s="61">
         <v>52.504904892302207</v>
@@ -4165,7 +4165,7 @@
         <v>53.683885361249359</v>
       </c>
       <c r="G19" s="61">
-        <v>54.628299400688576</v>
+        <v>54.627913698420528</v>
       </c>
       <c r="H19" s="61">
         <v>48.916520889477248</v>
@@ -4174,25 +4174,25 @@
         <v>56.320660666181155</v>
       </c>
       <c r="J19" s="61">
-        <v>0</v>
+        <v>61.374996445935572</v>
       </c>
       <c r="K19" s="61">
-        <v>0</v>
+        <v>52.454185045158589</v>
       </c>
       <c r="L19" s="61">
-        <v>0</v>
+        <v>54.1794633054934</v>
       </c>
       <c r="M19" s="61">
-        <v>0</v>
+        <v>55.797416740219539</v>
       </c>
       <c r="N19" s="61">
-        <v>0</v>
+        <v>54.320603907637654</v>
       </c>
       <c r="O19" s="61">
         <v>0</v>
       </c>
       <c r="P19" s="61">
-        <v>53.81742329406157</v>
+        <v>54.850598808104579</v>
       </c>
     </row>
     <row r="20" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="15">
-        <v>41.33903299600636</v>
+        <v>41.339433711698966</v>
       </c>
       <c r="E20" s="29">
         <v>45.624416396504145</v>
@@ -4210,7 +4210,7 @@
         <v>44.26016818259825</v>
       </c>
       <c r="G20" s="29">
-        <v>43.390147490117734</v>
+        <v>43.390516347314552</v>
       </c>
       <c r="H20" s="29">
         <v>48.972467810820611</v>
@@ -4219,25 +4219,25 @@
         <v>41.901112187396151</v>
       </c>
       <c r="J20" s="29">
-        <v>0</v>
+        <v>37.128315942111399</v>
       </c>
       <c r="K20" s="29">
-        <v>0</v>
+        <v>45.549779458097042</v>
       </c>
       <c r="L20" s="29">
-        <v>0</v>
+        <v>43.907641851609945</v>
       </c>
       <c r="M20" s="29">
-        <v>0</v>
+        <v>42.294352382491518</v>
       </c>
       <c r="N20" s="29">
-        <v>0</v>
+        <v>43.808043643745243</v>
       </c>
       <c r="O20" s="29">
         <v>0</v>
       </c>
       <c r="P20" s="29">
-        <v>44.247431265288455</v>
+        <v>43.270420069819849</v>
       </c>
     </row>
     <row r="21" spans="2:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4246,7 +4246,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="33">
-        <v>1.7699972858749178</v>
+        <v>1.770014443162762</v>
       </c>
       <c r="E21" s="62">
         <v>1.8706787111936463</v>
@@ -4255,7 +4255,7 @@
         <v>2.0559464561523941</v>
       </c>
       <c r="G21" s="62">
-        <v>1.9815531091936924</v>
+        <v>1.9815699542649234</v>
       </c>
       <c r="H21" s="62">
         <v>2.1110112997021417</v>
@@ -4264,25 +4264,25 @@
         <v>1.7782271464226878</v>
       </c>
       <c r="J21" s="62">
-        <v>0</v>
+        <v>1.4966876119530295</v>
       </c>
       <c r="K21" s="62">
-        <v>0</v>
+        <v>1.9960354967443816</v>
       </c>
       <c r="L21" s="62">
-        <v>0</v>
+        <v>1.9128948428966495</v>
       </c>
       <c r="M21" s="62">
-        <v>0</v>
+        <v>1.9082308772889447</v>
       </c>
       <c r="N21" s="62">
-        <v>0</v>
+        <v>1.8713524486171023</v>
       </c>
       <c r="O21" s="62">
         <v>0</v>
       </c>
       <c r="P21" s="62">
-        <v>1.93514544064997</v>
+        <v>1.8789811220755788</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -4307,7 +4307,7 @@
   <dimension ref="B2:R49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,28 +4454,28 @@
         <v>5052</v>
       </c>
       <c r="I7" s="101">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="J7" s="101">
-        <v>0</v>
+        <v>4671</v>
       </c>
       <c r="K7" s="101">
-        <v>0</v>
+        <v>5113</v>
       </c>
       <c r="L7" s="101">
-        <v>0</v>
+        <v>4975</v>
       </c>
       <c r="M7" s="101">
-        <v>0</v>
+        <v>6473</v>
       </c>
       <c r="N7" s="101">
-        <v>0</v>
+        <v>6648</v>
       </c>
       <c r="O7" s="101">
         <v>0</v>
       </c>
       <c r="P7" s="101">
-        <v>24452</v>
+        <v>52333</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,7 +4484,7 @@
         <v>58</v>
       </c>
       <c r="D8" s="15">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E8" s="15">
         <v>638</v>
@@ -4493,7 +4493,7 @@
         <v>584</v>
       </c>
       <c r="G8" s="15">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H8" s="15">
         <v>610</v>
@@ -4502,25 +4502,25 @@
         <v>618</v>
       </c>
       <c r="J8" s="15">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="L8" s="15">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>2370</v>
       </c>
       <c r="N8" s="15">
-        <v>0</v>
+        <v>3195</v>
       </c>
       <c r="O8" s="15">
         <v>0</v>
       </c>
       <c r="P8" s="15">
-        <v>3760</v>
+        <v>13262</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4529,43 +4529,43 @@
         <v>121</v>
       </c>
       <c r="D9" s="15">
-        <v>3748</v>
+        <v>3739</v>
       </c>
       <c r="E9" s="15">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="F9" s="15">
         <v>5402</v>
       </c>
       <c r="G9" s="15">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="H9" s="15">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="I9" s="15">
-        <v>5607</v>
+        <v>5606</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>6512</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>8187</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>6635</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>7182</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>7405</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>28470</v>
+        <v>64377</v>
       </c>
     </row>
     <row r="10" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,10 +4574,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="15">
-        <v>108439</v>
+        <v>108447</v>
       </c>
       <c r="E10" s="15">
-        <v>99361</v>
+        <v>99362</v>
       </c>
       <c r="F10" s="15">
         <v>155004</v>
@@ -4586,31 +4586,31 @@
         <v>126298</v>
       </c>
       <c r="H10" s="15">
-        <v>136097</v>
+        <v>136099</v>
       </c>
       <c r="I10" s="15">
         <v>151901</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>186803</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>163365</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>156962</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>170742</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>165439</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
       </c>
       <c r="P10" s="42">
-        <v>777100</v>
+        <v>1620422</v>
       </c>
     </row>
     <row r="11" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,28 +4634,28 @@
         <v>18801</v>
       </c>
       <c r="I11" s="41">
-        <v>17029</v>
+        <v>17034</v>
       </c>
       <c r="J11" s="41">
-        <v>0</v>
+        <v>16790</v>
       </c>
       <c r="K11" s="41">
-        <v>0</v>
+        <v>19139</v>
       </c>
       <c r="L11" s="41">
-        <v>0</v>
+        <v>17067</v>
       </c>
       <c r="M11" s="41">
-        <v>0</v>
+        <v>20052</v>
       </c>
       <c r="N11" s="41">
-        <v>0</v>
+        <v>19147</v>
       </c>
       <c r="O11" s="41">
         <v>0</v>
       </c>
       <c r="P11" s="33">
-        <v>100901</v>
+        <v>193101</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -4814,28 +4814,28 @@
         <v>3.0364043971366921</v>
       </c>
       <c r="I21" s="61">
-        <v>2.6186306396464012</v>
+        <v>2.6191138044142992</v>
       </c>
       <c r="J21" s="61">
-        <v>0</v>
+        <v>2.1652868043129581</v>
       </c>
       <c r="K21" s="61">
-        <v>0</v>
+        <v>2.5958531335039194</v>
       </c>
       <c r="L21" s="61">
-        <v>0</v>
+        <v>2.6538428711645969</v>
       </c>
       <c r="M21" s="61">
-        <v>0</v>
+        <v>3.1297898162161117</v>
       </c>
       <c r="N21" s="61">
-        <v>0</v>
+        <v>3.2937958916733554</v>
       </c>
       <c r="O21" s="61">
         <v>0</v>
       </c>
       <c r="P21" s="61">
-        <v>2.6160741128275578</v>
+        <v>2.6927262483309709</v>
       </c>
     </row>
     <row r="22" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4844,7 +4844,7 @@
         <v>58</v>
       </c>
       <c r="D22" s="15">
-        <v>0.57621230324224637</v>
+        <v>0.57697752542450698</v>
       </c>
       <c r="E22" s="29">
         <v>0.53208346538121531</v>
@@ -4853,34 +4853,34 @@
         <v>0.31338373946220349</v>
       </c>
       <c r="G22" s="29">
-        <v>0.36766404615272907</v>
+        <v>0.36832412523020258</v>
       </c>
       <c r="H22" s="29">
         <v>0.36662840107945016</v>
       </c>
       <c r="I22" s="29">
-        <v>0.34359102660328578</v>
+        <v>0.34358147551009066</v>
       </c>
       <c r="J22" s="29">
-        <v>0</v>
+        <v>0.43852736392208491</v>
       </c>
       <c r="K22" s="29">
-        <v>0</v>
+        <v>0.59095893749238448</v>
       </c>
       <c r="L22" s="29">
-        <v>0</v>
+        <v>0.97352024922118374</v>
       </c>
       <c r="M22" s="29">
-        <v>0</v>
+        <v>1.1459295325864645</v>
       </c>
       <c r="N22" s="29">
-        <v>0</v>
+        <v>1.5829840363863372</v>
       </c>
       <c r="O22" s="29">
         <v>0</v>
       </c>
       <c r="P22" s="29">
-        <v>0.40227542386028203</v>
+        <v>0.68237891015927488</v>
       </c>
     </row>
     <row r="23" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4889,43 +4889,43 @@
         <v>121</v>
       </c>
       <c r="D23" s="15">
-        <v>2.8680527391128012</v>
+        <v>2.8611657394724559</v>
       </c>
       <c r="E23" s="29">
-        <v>3.0548929995162877</v>
+        <v>3.0540590128934331</v>
       </c>
       <c r="F23" s="29">
         <v>2.8987995900253818</v>
       </c>
       <c r="G23" s="29">
-        <v>2.7914744186353526</v>
+        <v>2.7908143395578793</v>
       </c>
       <c r="H23" s="29">
-        <v>3.498596594563081</v>
+        <v>3.497394534231673</v>
       </c>
       <c r="I23" s="29">
-        <v>3.1173380035026272</v>
+        <v>3.116695391115806</v>
       </c>
       <c r="J23" s="29">
-        <v>0</v>
+        <v>3.0186999935101659</v>
       </c>
       <c r="K23" s="29">
-        <v>0</v>
+        <v>4.1565127330327769</v>
       </c>
       <c r="L23" s="29">
-        <v>0</v>
+        <v>3.5393462211411255</v>
       </c>
       <c r="M23" s="29">
-        <v>0</v>
+        <v>3.4726016468506282</v>
       </c>
       <c r="N23" s="29">
-        <v>0</v>
+        <v>3.6688565851145003</v>
       </c>
       <c r="O23" s="29">
         <v>0</v>
       </c>
       <c r="P23" s="29">
-        <v>3.0459524780059124</v>
+        <v>3.3124345573309939</v>
       </c>
     </row>
     <row r="24" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,10 +4934,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="15">
-        <v>82.979928222159302</v>
+        <v>82.986049999617379</v>
       </c>
       <c r="E24" s="29">
-        <v>82.865744833452865</v>
+        <v>82.866578820075731</v>
       </c>
       <c r="F24" s="29">
         <v>83.177625259587984</v>
@@ -4946,31 +4946,31 @@
         <v>83.366667326745741</v>
       </c>
       <c r="H24" s="29">
-        <v>81.798402461819563</v>
+        <v>81.799604522150972</v>
       </c>
       <c r="I24" s="29">
-        <v>84.452784032468799</v>
+        <v>84.450436426307888</v>
       </c>
       <c r="J24" s="29">
-        <v>0</v>
+        <v>86.594320468009755</v>
       </c>
       <c r="K24" s="29">
-        <v>0</v>
+        <v>82.939868405020107</v>
       </c>
       <c r="L24" s="29">
-        <v>0</v>
+        <v>83.729142662057782</v>
       </c>
       <c r="M24" s="29">
-        <v>0</v>
+        <v>82.556244832438026</v>
       </c>
       <c r="N24" s="29">
-        <v>0</v>
+        <v>81.96785477174312</v>
       </c>
       <c r="O24" s="29">
         <v>0</v>
       </c>
       <c r="P24" s="29">
-        <v>83.140487202613073</v>
+        <v>83.37670022305177</v>
       </c>
     </row>
     <row r="25" spans="2:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4994,28 +4994,28 @@
         <v>11.299968145401218</v>
       </c>
       <c r="I25" s="62">
-        <v>9.4676562977788894</v>
+        <v>9.4701729026519139</v>
       </c>
       <c r="J25" s="62">
-        <v>0</v>
+        <v>7.7831653702450376</v>
       </c>
       <c r="K25" s="62">
-        <v>0</v>
+        <v>9.7168067909508142</v>
       </c>
       <c r="L25" s="62">
-        <v>0</v>
+        <v>9.1041479964153105</v>
       </c>
       <c r="M25" s="62">
-        <v>0</v>
+        <v>9.6954341719087704</v>
       </c>
       <c r="N25" s="62">
-        <v>0</v>
+        <v>9.4865087150826923</v>
       </c>
       <c r="O25" s="62">
         <v>0</v>
       </c>
       <c r="P25" s="62">
-        <v>10.79521078269317</v>
+        <v>9.9357600611269898</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -5160,25 +5160,25 @@
         <v>14</v>
       </c>
       <c r="J35" s="40">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K35" s="40">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L35" s="40">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="M35" s="40">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N35" s="40">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O35" s="40">
         <v>0</v>
       </c>
       <c r="P35" s="42">
-        <v>219</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5205,25 +5205,25 @@
         <v>6</v>
       </c>
       <c r="J36" s="40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K36" s="40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L36" s="40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M36" s="40">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N36" s="40">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="O36" s="40">
         <v>0</v>
       </c>
       <c r="P36" s="42">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,28 +5247,28 @@
         <v>10119</v>
       </c>
       <c r="I37" s="41">
-        <v>9643</v>
+        <v>9638</v>
       </c>
       <c r="J37" s="41">
-        <v>0</v>
+        <v>9853</v>
       </c>
       <c r="K37" s="41">
-        <v>0</v>
+        <v>10747</v>
       </c>
       <c r="L37" s="41">
-        <v>0</v>
+        <v>10192</v>
       </c>
       <c r="M37" s="41">
-        <v>0</v>
+        <v>10981</v>
       </c>
       <c r="N37" s="41">
-        <v>0</v>
+        <v>10705</v>
       </c>
       <c r="O37" s="41">
         <v>0</v>
       </c>
       <c r="P37" s="33">
-        <v>63605</v>
+        <v>116078</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -5412,28 +5412,28 @@
         <v>0.21689835354431627</v>
       </c>
       <c r="I47" s="40">
-        <v>0.14488254165373071</v>
+        <v>0.14495754814661418</v>
       </c>
       <c r="J47" s="40">
-        <v>0</v>
+        <v>0.15194489465153971</v>
       </c>
       <c r="K47" s="40">
-        <v>0</v>
+        <v>0.19489559164733178</v>
       </c>
       <c r="L47" s="40">
-        <v>0</v>
+        <v>0.73965936739659366</v>
       </c>
       <c r="M47" s="40">
-        <v>0</v>
+        <v>0.33547919122313902</v>
       </c>
       <c r="N47" s="40">
-        <v>0</v>
+        <v>0.5917706888580675</v>
       </c>
       <c r="O47" s="40">
         <v>0</v>
       </c>
       <c r="P47" s="42">
-        <v>0.34286251056768013</v>
+        <v>0.37038624769580314</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5457,28 +5457,28 @@
         <v>1.9718032140392389E-2</v>
       </c>
       <c r="I48" s="40">
-        <v>6.2092517851598882E-2</v>
+        <v>6.2124663491406086E-2</v>
       </c>
       <c r="J48" s="40">
-        <v>0</v>
+        <v>4.0518638573743923E-2</v>
       </c>
       <c r="K48" s="40">
-        <v>0</v>
+        <v>6.4965197215777259E-2</v>
       </c>
       <c r="L48" s="40">
-        <v>0</v>
+        <v>6.8126520681265207E-2</v>
       </c>
       <c r="M48" s="40">
-        <v>0</v>
+        <v>9.9737056850122394E-2</v>
       </c>
       <c r="N48" s="40">
-        <v>0</v>
+        <v>0.42533518261673603</v>
       </c>
       <c r="O48" s="40">
         <v>0</v>
       </c>
       <c r="P48" s="42">
-        <v>7.8279112001753456E-2</v>
+        <v>0.10717194667123935</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,28 +5502,28 @@
         <v>99.763383614315288</v>
       </c>
       <c r="I49" s="41">
-        <v>99.793024940494661</v>
+        <v>99.792917788361976</v>
       </c>
       <c r="J49" s="41">
-        <v>0</v>
+        <v>99.807536466774721</v>
       </c>
       <c r="K49" s="41">
-        <v>0</v>
+        <v>99.740139211136892</v>
       </c>
       <c r="L49" s="41">
-        <v>0</v>
+        <v>99.192214111922141</v>
       </c>
       <c r="M49" s="41">
-        <v>0</v>
+        <v>99.56478375192674</v>
       </c>
       <c r="N49" s="41">
-        <v>0</v>
+        <v>98.982894128525203</v>
       </c>
       <c r="O49" s="41">
         <v>0</v>
       </c>
       <c r="P49" s="33">
-        <v>99.578858377430564</v>
+        <v>99.522441805632951</v>
       </c>
     </row>
   </sheetData>
@@ -5546,7 +5546,7 @@
   <dimension ref="B2:Q146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5688,25 +5688,25 @@
         <v>189528</v>
       </c>
       <c r="K7" s="67">
-        <v>0</v>
+        <v>225594</v>
       </c>
       <c r="L7" s="67">
-        <v>0</v>
+        <v>207743</v>
       </c>
       <c r="M7" s="67">
-        <v>0</v>
+        <v>197739</v>
       </c>
       <c r="N7" s="67">
-        <v>0</v>
+        <v>217848</v>
       </c>
       <c r="O7" s="67">
-        <v>0</v>
+        <v>212649</v>
       </c>
       <c r="P7" s="67">
         <v>0</v>
       </c>
       <c r="Q7" s="68">
-        <v>998557</v>
+        <v>2060130</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5734,25 +5734,25 @@
         <v>142037</v>
       </c>
       <c r="K8" s="97">
-        <v>0</v>
+        <v>176769</v>
       </c>
       <c r="L8" s="97">
-        <v>0</v>
+        <v>153500</v>
       </c>
       <c r="M8" s="97">
-        <v>0</v>
+        <v>145717</v>
       </c>
       <c r="N8" s="97">
-        <v>0</v>
+        <v>163198</v>
       </c>
       <c r="O8" s="97">
-        <v>0</v>
+        <v>160718</v>
       </c>
       <c r="P8" s="97">
         <v>0</v>
       </c>
       <c r="Q8" s="97">
-        <v>733715</v>
+        <v>1533617</v>
       </c>
     </row>
     <row r="9" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5762,10 +5762,10 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="102">
-        <v>102313</v>
+        <v>102315</v>
       </c>
       <c r="F9" s="102">
-        <v>94516</v>
+        <v>94515</v>
       </c>
       <c r="G9" s="102">
         <v>144011</v>
@@ -5777,28 +5777,28 @@
         <v>124461</v>
       </c>
       <c r="J9" s="102">
-        <v>139255</v>
+        <v>139254</v>
       </c>
       <c r="K9" s="102">
-        <v>0</v>
+        <v>173635</v>
       </c>
       <c r="L9" s="102">
-        <v>0</v>
+        <v>149129</v>
       </c>
       <c r="M9" s="102">
-        <v>0</v>
+        <v>141047</v>
       </c>
       <c r="N9" s="102">
-        <v>0</v>
+        <v>157556</v>
       </c>
       <c r="O9" s="102">
-        <v>0</v>
+        <v>154315</v>
       </c>
       <c r="P9" s="102">
         <v>0</v>
       </c>
       <c r="Q9" s="102">
-        <v>721162</v>
+        <v>1496844</v>
       </c>
     </row>
     <row r="10" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,25 +5826,25 @@
         <v>606</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>603</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>639</v>
       </c>
       <c r="O10" s="15">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="P10" s="15">
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>2886</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="11" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="15">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F11" s="15">
         <v>850</v>
@@ -5872,25 +5872,25 @@
         <v>1206</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <v>1628</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <v>1537</v>
       </c>
       <c r="O11" s="15">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="P11" s="15">
         <v>0</v>
       </c>
       <c r="Q11" s="15">
-        <v>7072</v>
+        <v>14787</v>
       </c>
     </row>
     <row r="12" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5918,25 +5918,25 @@
         <v>1114</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>1413</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="O12" s="15">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="P12" s="15">
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <v>6371</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="13" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5946,7 +5946,7 @@
         <v>80</v>
       </c>
       <c r="E13" s="15">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F13" s="15">
         <v>100</v>
@@ -5964,25 +5964,25 @@
         <v>92</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N13" s="15">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="O13" s="15">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <v>701</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,7 +5995,7 @@
         <v>1353</v>
       </c>
       <c r="F14" s="15">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="G14" s="15">
         <v>1800</v>
@@ -6007,28 +6007,28 @@
         <v>2004</v>
       </c>
       <c r="J14" s="15">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>3069</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>3317</v>
       </c>
       <c r="M14" s="15">
-        <v>0</v>
+        <v>3186</v>
       </c>
       <c r="N14" s="15">
-        <v>0</v>
+        <v>3891</v>
       </c>
       <c r="O14" s="15">
-        <v>0</v>
+        <v>4273</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <v>10899</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="15" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6056,25 +6056,25 @@
         <v>2779</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>2744</v>
       </c>
       <c r="L15" s="15">
-        <v>0</v>
+        <v>3151</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="N15" s="15">
-        <v>0</v>
+        <v>3788</v>
       </c>
       <c r="O15" s="15">
-        <v>0</v>
+        <v>4162</v>
       </c>
       <c r="P15" s="15">
         <v>0</v>
       </c>
       <c r="Q15" s="15">
-        <v>10610</v>
+        <v>27392</v>
       </c>
     </row>
     <row r="16" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" s="15">
         <v>21</v>
@@ -6099,28 +6099,28 @@
         <v>22</v>
       </c>
       <c r="J16" s="15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="O16" s="15">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="P16" s="15">
         <v>0</v>
       </c>
       <c r="Q16" s="15">
-        <v>124</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,16 +6148,16 @@
         <v>37</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="15">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <v>165</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6194,25 +6194,25 @@
         <v>36197</v>
       </c>
       <c r="K18" s="15">
-        <v>0</v>
+        <v>40110</v>
       </c>
       <c r="L18" s="15">
-        <v>0</v>
+        <v>37946</v>
       </c>
       <c r="M18" s="15">
-        <v>0</v>
+        <v>33197</v>
       </c>
       <c r="N18" s="15">
-        <v>0</v>
+        <v>35511</v>
       </c>
       <c r="O18" s="15">
-        <v>0</v>
+        <v>37445</v>
       </c>
       <c r="P18" s="15">
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <v>183954</v>
+        <v>368163</v>
       </c>
     </row>
     <row r="19" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6240,25 +6240,25 @@
         <v>5</v>
       </c>
       <c r="K19" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O19" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" s="15">
         <v>0</v>
       </c>
       <c r="Q19" s="15">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6286,25 +6286,25 @@
         <v>8</v>
       </c>
       <c r="K20" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M20" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N20" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O20" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P20" s="15">
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6332,25 +6332,25 @@
         <v>26402</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>28415</v>
       </c>
       <c r="L21" s="15">
-        <v>0</v>
+        <v>25634</v>
       </c>
       <c r="M21" s="15">
-        <v>0</v>
+        <v>23450</v>
       </c>
       <c r="N21" s="15">
-        <v>0</v>
+        <v>26027</v>
       </c>
       <c r="O21" s="15">
-        <v>0</v>
+        <v>25710</v>
       </c>
       <c r="P21" s="15">
         <v>0</v>
       </c>
       <c r="Q21" s="15">
-        <v>120583</v>
+        <v>249819</v>
       </c>
     </row>
     <row r="22" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6378,25 +6378,25 @@
         <v>9782</v>
       </c>
       <c r="K22" s="15">
-        <v>0</v>
+        <v>11686</v>
       </c>
       <c r="L22" s="15">
-        <v>0</v>
+        <v>12295</v>
       </c>
       <c r="M22" s="15">
-        <v>0</v>
+        <v>9737</v>
       </c>
       <c r="N22" s="15">
-        <v>0</v>
+        <v>9473</v>
       </c>
       <c r="O22" s="15">
-        <v>0</v>
+        <v>11728</v>
       </c>
       <c r="P22" s="15">
         <v>0</v>
       </c>
       <c r="Q22" s="15">
-        <v>63313</v>
+        <v>118232</v>
       </c>
     </row>
     <row r="23" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6424,25 +6424,25 @@
         <v>262</v>
       </c>
       <c r="K23" s="15">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="L23" s="15">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="M23" s="15">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="N23" s="15">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="O23" s="15">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="P23" s="15">
         <v>0</v>
       </c>
       <c r="Q23" s="15">
-        <v>1341</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="24" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6455,7 +6455,7 @@
         <v>20561</v>
       </c>
       <c r="F24" s="15">
-        <v>16723</v>
+        <v>16722</v>
       </c>
       <c r="G24" s="15">
         <v>23308</v>
@@ -6470,25 +6470,25 @@
         <v>21737</v>
       </c>
       <c r="K24" s="15">
-        <v>0</v>
+        <v>24852</v>
       </c>
       <c r="L24" s="15">
-        <v>0</v>
+        <v>24721</v>
       </c>
       <c r="M24" s="15">
-        <v>0</v>
+        <v>23870</v>
       </c>
       <c r="N24" s="15">
-        <v>0</v>
+        <v>27317</v>
       </c>
       <c r="O24" s="15">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="P24" s="15">
         <v>0</v>
       </c>
       <c r="Q24" s="15">
-        <v>121122</v>
+        <v>245281</v>
       </c>
     </row>
     <row r="25" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6516,25 +6516,25 @@
         <v>6665</v>
       </c>
       <c r="K25" s="15">
-        <v>0</v>
+        <v>6734</v>
       </c>
       <c r="L25" s="15">
-        <v>0</v>
+        <v>7429</v>
       </c>
       <c r="M25" s="15">
-        <v>0</v>
+        <v>5995</v>
       </c>
       <c r="N25" s="15">
-        <v>0</v>
+        <v>5576</v>
       </c>
       <c r="O25" s="15">
-        <v>0</v>
+        <v>5620</v>
       </c>
       <c r="P25" s="15">
         <v>0</v>
       </c>
       <c r="Q25" s="15">
-        <v>34111</v>
+        <v>65465</v>
       </c>
     </row>
     <row r="26" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6562,25 +6562,25 @@
         <v>600</v>
       </c>
       <c r="K26" s="15">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="L26" s="15">
-        <v>0</v>
+        <v>674</v>
       </c>
       <c r="M26" s="15">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="N26" s="15">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="O26" s="15">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="P26" s="15">
         <v>0</v>
       </c>
       <c r="Q26" s="15">
-        <v>2846</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="27" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6608,25 +6608,25 @@
         <v>508</v>
       </c>
       <c r="K27" s="15">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="L27" s="15">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="M27" s="15">
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="N27" s="15">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="O27" s="15">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="P27" s="15">
         <v>0</v>
       </c>
       <c r="Q27" s="15">
-        <v>2285</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="28" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6654,25 +6654,25 @@
         <v>92</v>
       </c>
       <c r="K28" s="15">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L28" s="15">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="M28" s="15">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="N28" s="15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="O28" s="15">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="P28" s="15">
         <v>0</v>
       </c>
       <c r="Q28" s="15">
-        <v>561</v>
+        <v>930</v>
       </c>
     </row>
     <row r="29" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6685,7 +6685,7 @@
         <v>11491</v>
       </c>
       <c r="F29" s="15">
-        <v>8697</v>
+        <v>8696</v>
       </c>
       <c r="G29" s="15">
         <v>16239</v>
@@ -6697,28 +6697,28 @@
         <v>10897</v>
       </c>
       <c r="J29" s="15">
-        <v>12412</v>
+        <v>12410</v>
       </c>
       <c r="K29" s="15">
-        <v>0</v>
+        <v>22251</v>
       </c>
       <c r="L29" s="15">
-        <v>0</v>
+        <v>15542</v>
       </c>
       <c r="M29" s="15">
-        <v>0</v>
+        <v>15921</v>
       </c>
       <c r="N29" s="15">
-        <v>0</v>
+        <v>16217</v>
       </c>
       <c r="O29" s="15">
-        <v>0</v>
+        <v>20390</v>
       </c>
       <c r="P29" s="15">
         <v>0</v>
       </c>
       <c r="Q29" s="15">
-        <v>73455</v>
+        <v>163773</v>
       </c>
     </row>
     <row r="30" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6746,25 +6746,25 @@
         <v>496</v>
       </c>
       <c r="K30" s="15">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="L30" s="15">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="M30" s="15">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="N30" s="15">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="O30" s="15">
-        <v>0</v>
+        <v>386</v>
       </c>
       <c r="P30" s="15">
         <v>0</v>
       </c>
       <c r="Q30" s="15">
-        <v>2472</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="31" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6792,25 +6792,25 @@
         <v>29</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L31" s="15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M31" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N31" s="15">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="O31" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P31" s="15">
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <v>209</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,25 +6838,25 @@
         <v>467</v>
       </c>
       <c r="K32" s="15">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="L32" s="15">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="M32" s="15">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="N32" s="15">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="O32" s="15">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="P32" s="15">
         <v>0</v>
       </c>
       <c r="Q32" s="15">
-        <v>2263</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="33" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6884,25 +6884,25 @@
         <v>275</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L33" s="15">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="M33" s="15">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="N33" s="15">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O33" s="15">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="P33" s="15">
         <v>0</v>
       </c>
       <c r="Q33" s="15">
-        <v>2341</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="34" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6930,25 +6930,25 @@
         <v>4781</v>
       </c>
       <c r="K34" s="15">
-        <v>0</v>
+        <v>6119</v>
       </c>
       <c r="L34" s="15">
-        <v>0</v>
+        <v>5490</v>
       </c>
       <c r="M34" s="15">
-        <v>0</v>
+        <v>5759</v>
       </c>
       <c r="N34" s="15">
-        <v>0</v>
+        <v>7375</v>
       </c>
       <c r="O34" s="15">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="P34" s="15">
         <v>0</v>
       </c>
       <c r="Q34" s="15">
-        <v>27755</v>
+        <v>57786</v>
       </c>
     </row>
     <row r="35" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6976,25 +6976,25 @@
         <v>6001</v>
       </c>
       <c r="K35" s="15">
-        <v>0</v>
+        <v>6592</v>
       </c>
       <c r="L35" s="15">
-        <v>0</v>
+        <v>6127</v>
       </c>
       <c r="M35" s="15">
-        <v>0</v>
+        <v>4830</v>
       </c>
       <c r="N35" s="15">
-        <v>0</v>
+        <v>6046</v>
       </c>
       <c r="O35" s="15">
-        <v>0</v>
+        <v>6638</v>
       </c>
       <c r="P35" s="15">
         <v>0</v>
       </c>
       <c r="Q35" s="15">
-        <v>25909</v>
+        <v>56142</v>
       </c>
     </row>
     <row r="36" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7022,25 +7022,25 @@
         <v>2928</v>
       </c>
       <c r="K36" s="15">
-        <v>0</v>
+        <v>3335</v>
       </c>
       <c r="L36" s="15">
-        <v>0</v>
+        <v>3516</v>
       </c>
       <c r="M36" s="15">
-        <v>0</v>
+        <v>2476</v>
       </c>
       <c r="N36" s="15">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O36" s="15">
-        <v>0</v>
+        <v>3044</v>
       </c>
       <c r="P36" s="15">
         <v>0</v>
       </c>
       <c r="Q36" s="15">
-        <v>12734</v>
+        <v>28105</v>
       </c>
     </row>
     <row r="37" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7068,25 +7068,25 @@
         <v>3073</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>3257</v>
       </c>
       <c r="L37" s="15">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="M37" s="15">
-        <v>0</v>
+        <v>2354</v>
       </c>
       <c r="N37" s="15">
-        <v>0</v>
+        <v>3046</v>
       </c>
       <c r="O37" s="15">
-        <v>0</v>
+        <v>3594</v>
       </c>
       <c r="P37" s="15">
         <v>0</v>
       </c>
       <c r="Q37" s="15">
-        <v>13175</v>
+        <v>28037</v>
       </c>
     </row>
     <row r="38" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,25 +7114,25 @@
         <v>8917</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>11714</v>
       </c>
       <c r="L38" s="15">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="M38" s="15">
-        <v>0</v>
+        <v>8458</v>
       </c>
       <c r="N38" s="15">
-        <v>0</v>
+        <v>9952</v>
       </c>
       <c r="O38" s="15">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="P38" s="15">
         <v>0</v>
       </c>
       <c r="Q38" s="15">
-        <v>42534</v>
+        <v>90219</v>
       </c>
     </row>
     <row r="39" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7160,25 +7160,25 @@
         <v>11761</v>
       </c>
       <c r="K39" s="15">
-        <v>0</v>
+        <v>12997</v>
       </c>
       <c r="L39" s="15">
-        <v>0</v>
+        <v>13742</v>
       </c>
       <c r="M39" s="15">
-        <v>0</v>
+        <v>12346</v>
       </c>
       <c r="N39" s="15">
-        <v>0</v>
+        <v>13747</v>
       </c>
       <c r="O39" s="15">
-        <v>0</v>
+        <v>11086</v>
       </c>
       <c r="P39" s="15">
         <v>0</v>
       </c>
       <c r="Q39" s="15">
-        <v>66975</v>
+        <v>130893</v>
       </c>
     </row>
     <row r="40" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7206,25 +7206,25 @@
         <v>11660</v>
       </c>
       <c r="K40" s="15">
-        <v>0</v>
+        <v>12899</v>
       </c>
       <c r="L40" s="15">
-        <v>0</v>
+        <v>13628</v>
       </c>
       <c r="M40" s="15">
-        <v>0</v>
+        <v>12287</v>
       </c>
       <c r="N40" s="15">
-        <v>0</v>
+        <v>13641</v>
       </c>
       <c r="O40" s="15">
-        <v>0</v>
+        <v>11020</v>
       </c>
       <c r="P40" s="15">
         <v>0</v>
       </c>
       <c r="Q40" s="15">
-        <v>66643</v>
+        <v>130118</v>
       </c>
     </row>
     <row r="41" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7252,25 +7252,25 @@
         <v>101</v>
       </c>
       <c r="K41" s="15">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="L41" s="15">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="M41" s="15">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N41" s="15">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O41" s="15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P41" s="15">
         <v>0</v>
       </c>
       <c r="Q41" s="15">
-        <v>332</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7295,28 +7295,28 @@
         <v>22698</v>
       </c>
       <c r="J42" s="15">
-        <v>24503</v>
+        <v>24502</v>
       </c>
       <c r="K42" s="15">
-        <v>0</v>
+        <v>35796</v>
       </c>
       <c r="L42" s="15">
-        <v>0</v>
+        <v>23658</v>
       </c>
       <c r="M42" s="15">
-        <v>0</v>
+        <v>23862</v>
       </c>
       <c r="N42" s="15">
-        <v>0</v>
+        <v>27935</v>
       </c>
       <c r="O42" s="15">
-        <v>0</v>
+        <v>26091</v>
       </c>
       <c r="P42" s="15">
         <v>0</v>
       </c>
       <c r="Q42" s="15">
-        <v>115490</v>
+        <v>252831</v>
       </c>
     </row>
     <row r="43" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7326,10 +7326,10 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="43">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="F43" s="43">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G43" s="43">
         <v>2233</v>
@@ -7341,28 +7341,28 @@
         <v>3047</v>
       </c>
       <c r="J43" s="43">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="K43" s="43">
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="L43" s="43">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="M43" s="43">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="N43" s="43">
-        <v>0</v>
+        <v>5642</v>
       </c>
       <c r="O43" s="43">
-        <v>0</v>
+        <v>6403</v>
       </c>
       <c r="P43" s="43">
         <v>0</v>
       </c>
       <c r="Q43" s="43">
-        <v>12553</v>
+        <v>36773</v>
       </c>
     </row>
     <row r="44" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7390,25 +7390,25 @@
         <v>37833</v>
       </c>
       <c r="K44" s="93">
-        <v>0</v>
+        <v>38953</v>
       </c>
       <c r="L44" s="93">
-        <v>0</v>
+        <v>43468</v>
       </c>
       <c r="M44" s="93">
-        <v>0</v>
+        <v>41747</v>
       </c>
       <c r="N44" s="93">
-        <v>0</v>
+        <v>43621</v>
       </c>
       <c r="O44" s="93">
-        <v>0</v>
+        <v>41116</v>
       </c>
       <c r="P44" s="93">
         <v>0</v>
       </c>
       <c r="Q44" s="93">
-        <v>200973</v>
+        <v>409878</v>
       </c>
     </row>
     <row r="45" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7436,25 +7436,25 @@
         <v>37612</v>
       </c>
       <c r="K45" s="21">
-        <v>0</v>
+        <v>38628</v>
       </c>
       <c r="L45" s="21">
-        <v>0</v>
+        <v>43203</v>
       </c>
       <c r="M45" s="21">
-        <v>0</v>
+        <v>41358</v>
       </c>
       <c r="N45" s="21">
-        <v>0</v>
+        <v>43243</v>
       </c>
       <c r="O45" s="21">
-        <v>0</v>
+        <v>40778</v>
       </c>
       <c r="P45" s="21">
         <v>0</v>
       </c>
       <c r="Q45" s="21">
-        <v>199056</v>
+        <v>406266</v>
       </c>
     </row>
     <row r="46" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7482,25 +7482,25 @@
         <v>32</v>
       </c>
       <c r="K46" s="15">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L46" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M46" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N46" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O46" s="15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P46" s="15">
         <v>0</v>
       </c>
       <c r="Q46" s="15">
-        <v>49</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7528,25 +7528,25 @@
         <v>16421</v>
       </c>
       <c r="K47" s="15">
-        <v>0</v>
+        <v>16412</v>
       </c>
       <c r="L47" s="15">
-        <v>0</v>
+        <v>20416</v>
       </c>
       <c r="M47" s="15">
-        <v>0</v>
+        <v>20466</v>
       </c>
       <c r="N47" s="15">
-        <v>0</v>
+        <v>21204</v>
       </c>
       <c r="O47" s="15">
-        <v>0</v>
+        <v>21766</v>
       </c>
       <c r="P47" s="15">
         <v>0</v>
       </c>
       <c r="Q47" s="15">
-        <v>88243</v>
+        <v>188507</v>
       </c>
     </row>
     <row r="48" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7574,25 +7574,25 @@
         <v>412</v>
       </c>
       <c r="K48" s="15">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="L48" s="15">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="M48" s="15">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="N48" s="15">
-        <v>0</v>
+        <v>2746</v>
       </c>
       <c r="O48" s="15">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="P48" s="15">
         <v>0</v>
       </c>
       <c r="Q48" s="15">
-        <v>1853</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="49" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7620,25 +7620,25 @@
         <v>16009</v>
       </c>
       <c r="K49" s="15">
-        <v>0</v>
+        <v>16011</v>
       </c>
       <c r="L49" s="15">
-        <v>0</v>
+        <v>19887</v>
       </c>
       <c r="M49" s="15">
-        <v>0</v>
+        <v>19834</v>
       </c>
       <c r="N49" s="15">
-        <v>0</v>
+        <v>18458</v>
       </c>
       <c r="O49" s="15">
-        <v>0</v>
+        <v>18566</v>
       </c>
       <c r="P49" s="15">
         <v>0</v>
       </c>
       <c r="Q49" s="15">
-        <v>86390</v>
+        <v>179146</v>
       </c>
     </row>
     <row r="50" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7666,25 +7666,25 @@
         <v>1879</v>
       </c>
       <c r="K50" s="15">
-        <v>0</v>
+        <v>1796</v>
       </c>
       <c r="L50" s="15">
-        <v>0</v>
+        <v>2276</v>
       </c>
       <c r="M50" s="15">
-        <v>0</v>
+        <v>2167</v>
       </c>
       <c r="N50" s="15">
-        <v>0</v>
+        <v>3017</v>
       </c>
       <c r="O50" s="15">
-        <v>0</v>
+        <v>2603</v>
       </c>
       <c r="P50" s="15">
         <v>0</v>
       </c>
       <c r="Q50" s="15">
-        <v>10962</v>
+        <v>22821</v>
       </c>
     </row>
     <row r="51" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7712,25 +7712,25 @@
         <v>5402</v>
       </c>
       <c r="K51" s="15">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="L51" s="15">
-        <v>0</v>
+        <v>4928</v>
       </c>
       <c r="M51" s="15">
-        <v>0</v>
+        <v>4093</v>
       </c>
       <c r="N51" s="15">
-        <v>0</v>
+        <v>4969</v>
       </c>
       <c r="O51" s="15">
-        <v>0</v>
+        <v>3642</v>
       </c>
       <c r="P51" s="15">
         <v>0</v>
       </c>
       <c r="Q51" s="15">
-        <v>27922</v>
+        <v>50442</v>
       </c>
     </row>
     <row r="52" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7758,25 +7758,25 @@
         <v>965</v>
       </c>
       <c r="K52" s="15">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="L52" s="15">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="M52" s="15">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="N52" s="15">
-        <v>0</v>
+        <v>1206</v>
       </c>
       <c r="O52" s="15">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="P52" s="15">
         <v>0</v>
       </c>
       <c r="Q52" s="15">
-        <v>5234</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="53" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7804,25 +7804,25 @@
         <v>278</v>
       </c>
       <c r="K53" s="15">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="L53" s="15">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="M53" s="15">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N53" s="15">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O53" s="15">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="P53" s="15">
         <v>0</v>
       </c>
       <c r="Q53" s="15">
-        <v>1200</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="54" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7850,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="15">
         <v>0</v>
@@ -7868,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7896,25 +7896,25 @@
         <v>149</v>
       </c>
       <c r="K55" s="15">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="L55" s="15">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="M55" s="15">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N55" s="15">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="O55" s="15">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="P55" s="15">
         <v>0</v>
       </c>
       <c r="Q55" s="15">
-        <v>927</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="56" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7942,25 +7942,25 @@
         <v>502</v>
       </c>
       <c r="K56" s="15">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="L56" s="15">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M56" s="15">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="N56" s="15">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="O56" s="15">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="P56" s="15">
         <v>0</v>
       </c>
       <c r="Q56" s="15">
-        <v>3273</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="57" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7988,25 +7988,25 @@
         <v>955</v>
       </c>
       <c r="K57" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="L57" s="15">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="M57" s="15">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="N57" s="15">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="O57" s="15">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="P57" s="15">
         <v>0</v>
       </c>
       <c r="Q57" s="15">
-        <v>3878</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="58" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,25 +8034,25 @@
         <v>374</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="L58" s="15">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="M58" s="15">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="N58" s="15">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="O58" s="15">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="P58" s="15">
         <v>0</v>
       </c>
       <c r="Q58" s="15">
-        <v>2455</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="59" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,25 +8080,25 @@
         <v>277</v>
       </c>
       <c r="K59" s="15">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="L59" s="15">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="M59" s="15">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="N59" s="15">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O59" s="15">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="P59" s="15">
         <v>0</v>
       </c>
       <c r="Q59" s="15">
-        <v>1392</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="60" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8126,25 +8126,25 @@
         <v>97</v>
       </c>
       <c r="K60" s="15">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L60" s="15">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="M60" s="15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N60" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O60" s="15">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="P60" s="15">
         <v>0</v>
       </c>
       <c r="Q60" s="15">
-        <v>1063</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="61" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8172,25 +8172,25 @@
         <v>1653</v>
       </c>
       <c r="K61" s="15">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="L61" s="15">
-        <v>0</v>
+        <v>2525</v>
       </c>
       <c r="M61" s="15">
-        <v>0</v>
+        <v>1951</v>
       </c>
       <c r="N61" s="15">
-        <v>0</v>
+        <v>1973</v>
       </c>
       <c r="O61" s="15">
-        <v>0</v>
+        <v>1705</v>
       </c>
       <c r="P61" s="15">
         <v>0</v>
       </c>
       <c r="Q61" s="15">
-        <v>10458</v>
+        <v>20864</v>
       </c>
     </row>
     <row r="62" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8218,25 +8218,25 @@
         <v>3732</v>
       </c>
       <c r="K62" s="15">
-        <v>0</v>
+        <v>4357</v>
       </c>
       <c r="L62" s="15">
-        <v>0</v>
+        <v>4437</v>
       </c>
       <c r="M62" s="15">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="N62" s="15">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="O62" s="15">
-        <v>0</v>
+        <v>3783</v>
       </c>
       <c r="P62" s="15">
         <v>0</v>
       </c>
       <c r="Q62" s="15">
-        <v>21543</v>
+        <v>41887</v>
       </c>
     </row>
     <row r="63" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8264,25 +8264,25 @@
         <v>5269</v>
       </c>
       <c r="K63" s="15">
-        <v>0</v>
+        <v>5806</v>
       </c>
       <c r="L63" s="15">
-        <v>0</v>
+        <v>5150</v>
       </c>
       <c r="M63" s="15">
-        <v>0</v>
+        <v>5790</v>
       </c>
       <c r="N63" s="15">
-        <v>0</v>
+        <v>4956</v>
       </c>
       <c r="O63" s="15">
-        <v>0</v>
+        <v>4028</v>
       </c>
       <c r="P63" s="15">
         <v>0</v>
       </c>
       <c r="Q63" s="15">
-        <v>22901</v>
+        <v>48631</v>
       </c>
     </row>
     <row r="64" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8310,25 +8310,25 @@
         <v>221</v>
       </c>
       <c r="K64" s="43">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="L64" s="43">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="M64" s="43">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="N64" s="43">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="O64" s="43">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="P64" s="43">
         <v>0</v>
       </c>
       <c r="Q64" s="33">
-        <v>1917</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="65" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8356,25 +8356,25 @@
         <v>7884</v>
       </c>
       <c r="K65" s="97">
-        <v>0</v>
+        <v>8370</v>
       </c>
       <c r="L65" s="97">
-        <v>0</v>
+        <v>9314</v>
       </c>
       <c r="M65" s="97">
-        <v>0</v>
+        <v>8772</v>
       </c>
       <c r="N65" s="97">
-        <v>0</v>
+        <v>9447</v>
       </c>
       <c r="O65" s="97">
-        <v>0</v>
+        <v>9229</v>
       </c>
       <c r="P65" s="97">
         <v>0</v>
       </c>
       <c r="Q65" s="97">
-        <v>52547</v>
+        <v>97679</v>
       </c>
     </row>
     <row r="66" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8402,25 +8402,25 @@
         <v>512</v>
       </c>
       <c r="K66" s="94">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="L66" s="94">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="M66" s="94">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="N66" s="94">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="O66" s="94">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="P66" s="94">
         <v>0</v>
       </c>
       <c r="Q66" s="94">
-        <v>4571</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="67" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8448,25 +8448,25 @@
         <v>507</v>
       </c>
       <c r="K67" s="21">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="L67" s="21">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="M67" s="21">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="N67" s="21">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="O67" s="21">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="P67" s="21">
         <v>0</v>
       </c>
       <c r="Q67" s="21">
-        <v>4553</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="68" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8540,25 +8540,25 @@
         <v>209</v>
       </c>
       <c r="K69" s="21">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L69" s="21">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="M69" s="21">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N69" s="21">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="O69" s="21">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P69" s="21">
         <v>0</v>
       </c>
       <c r="Q69" s="15">
-        <v>2782</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="70" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8589,22 +8589,22 @@
         <v>0</v>
       </c>
       <c r="L70" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70" s="21">
         <v>0</v>
       </c>
       <c r="N70" s="21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O70" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P70" s="21">
         <v>0</v>
       </c>
       <c r="Q70" s="15">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8632,25 +8632,25 @@
         <v>34</v>
       </c>
       <c r="K71" s="21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L71" s="21">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M71" s="21">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="N71" s="21">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O71" s="21">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P71" s="21">
         <v>0</v>
       </c>
       <c r="Q71" s="15">
-        <v>328</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,25 +8678,25 @@
         <v>36</v>
       </c>
       <c r="K72" s="15">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="L72" s="15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="M72" s="15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="N72" s="15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O72" s="15">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="P72" s="15">
         <v>0</v>
       </c>
       <c r="Q72" s="15">
-        <v>193</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8724,25 +8724,25 @@
         <v>206</v>
       </c>
       <c r="K73" s="15">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="L73" s="15">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="M73" s="15">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="N73" s="15">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="O73" s="15">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="P73" s="15">
         <v>0</v>
       </c>
       <c r="Q73" s="15">
-        <v>1190</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="74" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8770,25 +8770,25 @@
         <v>17</v>
       </c>
       <c r="K74" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L74" s="15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M74" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N74" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O74" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P74" s="15">
         <v>0</v>
       </c>
       <c r="Q74" s="15">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8816,25 +8816,25 @@
         <v>12</v>
       </c>
       <c r="K75" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L75" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M75" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N75" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O75" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P75" s="15">
         <v>0</v>
       </c>
       <c r="Q75" s="15">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8862,25 +8862,25 @@
         <v>5</v>
       </c>
       <c r="K76" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M76" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N76" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O76" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="15">
         <v>0</v>
       </c>
       <c r="Q76" s="15">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8908,25 +8908,25 @@
         <v>5</v>
       </c>
       <c r="K77" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77" s="43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M77" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N77" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O77" s="43">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P77" s="43">
         <v>0</v>
       </c>
       <c r="Q77" s="43">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8954,25 +8954,25 @@
         <v>658</v>
       </c>
       <c r="K78" s="94">
-        <v>0</v>
+        <v>754</v>
       </c>
       <c r="L78" s="94">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="M78" s="94">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="N78" s="94">
-        <v>0</v>
+        <v>783</v>
       </c>
       <c r="O78" s="94">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="P78" s="94">
         <v>0</v>
       </c>
       <c r="Q78" s="94">
-        <v>4545</v>
+        <v>8268</v>
       </c>
     </row>
     <row r="79" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9000,25 +9000,25 @@
         <v>651</v>
       </c>
       <c r="K79" s="21">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="L79" s="21">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="M79" s="21">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="N79" s="21">
-        <v>0</v>
+        <v>752</v>
       </c>
       <c r="O79" s="21">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="P79" s="21">
         <v>0</v>
       </c>
       <c r="Q79" s="21">
-        <v>4362</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="80" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9046,25 +9046,25 @@
         <v>2</v>
       </c>
       <c r="K80" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" s="15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M80" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N80" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P80" s="15">
         <v>0</v>
       </c>
       <c r="Q80" s="15">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9092,25 +9092,25 @@
         <v>25</v>
       </c>
       <c r="K81" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L81" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M81" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N81" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O81" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P81" s="15">
         <v>0</v>
       </c>
       <c r="Q81" s="15">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="L82" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" s="15">
         <v>0</v>
@@ -9150,13 +9150,13 @@
         <v>0</v>
       </c>
       <c r="O82" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P82" s="15">
         <v>0</v>
       </c>
       <c r="Q82" s="15">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9184,25 +9184,25 @@
         <v>116</v>
       </c>
       <c r="K83" s="15">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="L83" s="15">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="M83" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N83" s="15">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="O83" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P83" s="15">
         <v>0</v>
       </c>
       <c r="Q83" s="15">
-        <v>559</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9230,25 +9230,25 @@
         <v>218</v>
       </c>
       <c r="K84" s="15">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="L84" s="15">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="M84" s="15">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="N84" s="15">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="O84" s="15">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="P84" s="15">
         <v>0</v>
       </c>
       <c r="Q84" s="15">
-        <v>1228</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="85" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9276,25 +9276,25 @@
         <v>289</v>
       </c>
       <c r="K85" s="15">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="L85" s="15">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="M85" s="15">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="N85" s="15">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="O85" s="15">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="P85" s="15">
         <v>0</v>
       </c>
       <c r="Q85" s="15">
-        <v>2370</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="86" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9322,25 +9322,25 @@
         <v>7</v>
       </c>
       <c r="K86" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L86" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M86" s="43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N86" s="43">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O86" s="43">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P86" s="43">
         <v>0</v>
       </c>
       <c r="Q86" s="43">
-        <v>183</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9368,25 +9368,25 @@
         <v>658</v>
       </c>
       <c r="K87" s="94">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="L87" s="94">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="M87" s="94">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="N87" s="94">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="O87" s="94">
-        <v>0</v>
+        <v>786</v>
       </c>
       <c r="P87" s="94">
         <v>0</v>
       </c>
       <c r="Q87" s="94">
-        <v>4317</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="88" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9414,25 +9414,25 @@
         <v>644</v>
       </c>
       <c r="K88" s="21">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="L88" s="21">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="M88" s="21">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="N88" s="21">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O88" s="21">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="P88" s="21">
         <v>0</v>
       </c>
       <c r="Q88" s="21">
-        <v>4228</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="89" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="L89" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" s="15">
         <v>0</v>
       </c>
       <c r="N89" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" s="15">
         <v>0</v>
       </c>
       <c r="Q89" s="15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,25 +9552,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91" s="15">
         <v>0</v>
       </c>
       <c r="M91" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N91" s="15">
         <v>0</v>
       </c>
       <c r="O91" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" s="15">
         <v>0</v>
       </c>
       <c r="Q91" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9598,25 +9598,25 @@
         <v>140</v>
       </c>
       <c r="K92" s="15">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="L92" s="15">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="M92" s="15">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N92" s="15">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="O92" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P92" s="15">
         <v>0</v>
       </c>
       <c r="Q92" s="15">
-        <v>647</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="93" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9644,25 +9644,25 @@
         <v>433</v>
       </c>
       <c r="K93" s="15">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="L93" s="15">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="M93" s="15">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N93" s="15">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="O93" s="15">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="P93" s="15">
         <v>0</v>
       </c>
       <c r="Q93" s="15">
-        <v>2908</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="94" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9690,25 +9690,25 @@
         <v>70</v>
       </c>
       <c r="K94" s="15">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="L94" s="15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="M94" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N94" s="15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O94" s="15">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="P94" s="15">
         <v>0</v>
       </c>
       <c r="Q94" s="15">
-        <v>666</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="95" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9736,25 +9736,25 @@
         <v>14</v>
       </c>
       <c r="K95" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L95" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M95" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N95" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O95" s="15">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="P95" s="15">
         <v>0</v>
       </c>
       <c r="Q95" s="43">
-        <v>89</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9764,43 +9764,43 @@
       </c>
       <c r="D96" s="99"/>
       <c r="E96" s="94">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="F96" s="94">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="G96" s="94">
-        <v>2930</v>
+        <v>2953</v>
       </c>
       <c r="H96" s="94">
-        <v>2048</v>
+        <v>2101</v>
       </c>
       <c r="I96" s="94">
-        <v>2284</v>
+        <v>2363</v>
       </c>
       <c r="J96" s="94">
-        <v>2129</v>
+        <v>2213</v>
       </c>
       <c r="K96" s="94">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="L96" s="94">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="M96" s="94">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="N96" s="94">
-        <v>0</v>
+        <v>2254</v>
       </c>
       <c r="O96" s="94">
-        <v>0</v>
+        <v>2473</v>
       </c>
       <c r="P96" s="94">
         <v>0</v>
       </c>
       <c r="Q96" s="94">
-        <v>14203</v>
+        <v>26227</v>
       </c>
     </row>
     <row r="97" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9810,43 +9810,43 @@
       </c>
       <c r="D97" s="100"/>
       <c r="E97" s="21">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="F97" s="21">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="G97" s="21">
-        <v>2930</v>
+        <v>2953</v>
       </c>
       <c r="H97" s="21">
-        <v>2045</v>
+        <v>2098</v>
       </c>
       <c r="I97" s="21">
-        <v>2283</v>
+        <v>2362</v>
       </c>
       <c r="J97" s="21">
-        <v>2129</v>
+        <v>2213</v>
       </c>
       <c r="K97" s="21">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="L97" s="21">
-        <v>0</v>
+        <v>2610</v>
       </c>
       <c r="M97" s="21">
-        <v>0</v>
+        <v>2251</v>
       </c>
       <c r="N97" s="21">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="O97" s="21">
-        <v>0</v>
+        <v>2472</v>
       </c>
       <c r="P97" s="21">
         <v>0</v>
       </c>
       <c r="Q97" s="21">
-        <v>14198</v>
+        <v>26218</v>
       </c>
     </row>
     <row r="98" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" s="15">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9920,25 +9920,25 @@
         <v>72</v>
       </c>
       <c r="K99" s="15">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="L99" s="15">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M99" s="15">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N99" s="15">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="O99" s="15">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="P99" s="15">
         <v>0</v>
       </c>
       <c r="Q99" s="15">
-        <v>357</v>
+        <v>742</v>
       </c>
     </row>
     <row r="100" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9969,22 +9969,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="15">
         <v>0</v>
       </c>
       <c r="N100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" s="15">
         <v>0</v>
       </c>
       <c r="Q100" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10012,25 +10012,25 @@
         <v>457</v>
       </c>
       <c r="K101" s="15">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="L101" s="15">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M101" s="15">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="N101" s="15">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="O101" s="15">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="P101" s="15">
         <v>0</v>
       </c>
       <c r="Q101" s="15">
-        <v>2259</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="102" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10058,25 +10058,25 @@
         <v>892</v>
       </c>
       <c r="K102" s="15">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L102" s="15">
-        <v>0</v>
+        <v>1153</v>
       </c>
       <c r="M102" s="15">
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="N102" s="15">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="O102" s="15">
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="P102" s="15">
         <v>0</v>
       </c>
       <c r="Q102" s="15">
-        <v>6210</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="103" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10104,25 +10104,25 @@
         <v>397</v>
       </c>
       <c r="K103" s="15">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="L103" s="15">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M103" s="15">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="N103" s="15">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="O103" s="15">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="P103" s="15">
         <v>0</v>
       </c>
       <c r="Q103" s="15">
-        <v>3252</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="104" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10132,43 +10132,43 @@
         <v>117</v>
       </c>
       <c r="E104" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G104" s="15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H104" s="15">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I104" s="15">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J104" s="15">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K104" s="15">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L104" s="15">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="M104" s="15">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N104" s="15">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="O104" s="15">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="P104" s="15">
         <v>0</v>
       </c>
       <c r="Q104" s="15">
-        <v>0</v>
+        <v>737</v>
       </c>
     </row>
     <row r="105" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10196,25 +10196,25 @@
         <v>309</v>
       </c>
       <c r="K105" s="15">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="L105" s="15">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="M105" s="15">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="N105" s="15">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="O105" s="15">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="P105" s="15">
         <v>0</v>
       </c>
       <c r="Q105" s="15">
-        <v>2108</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="106" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10245,22 +10245,22 @@
         <v>0</v>
       </c>
       <c r="L106" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="43">
         <v>0</v>
       </c>
       <c r="N106" s="43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O106" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" s="43">
         <v>0</v>
       </c>
       <c r="Q106" s="43">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10270,43 +10270,43 @@
       </c>
       <c r="D107" s="99"/>
       <c r="E107" s="94">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="F107" s="94">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="G107" s="94">
-        <v>4151</v>
+        <v>4128</v>
       </c>
       <c r="H107" s="94">
-        <v>3545</v>
+        <v>3492</v>
       </c>
       <c r="I107" s="94">
-        <v>3727</v>
+        <v>3648</v>
       </c>
       <c r="J107" s="94">
-        <v>3927</v>
+        <v>3843</v>
       </c>
       <c r="K107" s="94">
-        <v>0</v>
+        <v>4139</v>
       </c>
       <c r="L107" s="94">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="M107" s="94">
-        <v>0</v>
+        <v>4614</v>
       </c>
       <c r="N107" s="94">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="O107" s="94">
-        <v>0</v>
+        <v>4599</v>
       </c>
       <c r="P107" s="94">
         <v>0</v>
       </c>
       <c r="Q107" s="94">
-        <v>24911</v>
+        <v>47733</v>
       </c>
     </row>
     <row r="108" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10316,43 +10316,43 @@
       </c>
       <c r="D108" s="100"/>
       <c r="E108" s="21">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="F108" s="21">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="G108" s="21">
-        <v>4151</v>
+        <v>4128</v>
       </c>
       <c r="H108" s="21">
-        <v>3543</v>
+        <v>3490</v>
       </c>
       <c r="I108" s="21">
-        <v>3725</v>
+        <v>3646</v>
       </c>
       <c r="J108" s="21">
-        <v>3927</v>
+        <v>3843</v>
       </c>
       <c r="K108" s="21">
-        <v>0</v>
+        <v>4139</v>
       </c>
       <c r="L108" s="21">
-        <v>0</v>
+        <v>4534</v>
       </c>
       <c r="M108" s="21">
-        <v>0</v>
+        <v>4614</v>
       </c>
       <c r="N108" s="21">
-        <v>0</v>
+        <v>5178</v>
       </c>
       <c r="O108" s="21">
-        <v>0</v>
+        <v>4588</v>
       </c>
       <c r="P108" s="21">
         <v>0</v>
       </c>
       <c r="Q108" s="21">
-        <v>24901</v>
+        <v>47711</v>
       </c>
     </row>
     <row r="109" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10380,25 +10380,25 @@
         <v>582</v>
       </c>
       <c r="K109" s="15">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="L109" s="15">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="M109" s="15">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="N109" s="15">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="O109" s="15">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="P109" s="15">
         <v>0</v>
       </c>
       <c r="Q109" s="15">
-        <v>3223</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="110" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10472,25 +10472,25 @@
         <v>174</v>
       </c>
       <c r="K111" s="15">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L111" s="15">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M111" s="15">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="N111" s="15">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="O111" s="15">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="P111" s="15">
         <v>0</v>
       </c>
       <c r="Q111" s="15">
-        <v>1153</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="112" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,25 +10518,25 @@
         <v>393</v>
       </c>
       <c r="K112" s="15">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="L112" s="15">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="M112" s="15">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="N112" s="15">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="O112" s="15">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="P112" s="15">
         <v>0</v>
       </c>
       <c r="Q112" s="15">
-        <v>2871</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="113" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -10610,25 +10610,25 @@
         <v>393</v>
       </c>
       <c r="K114" s="15">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="L114" s="15">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="M114" s="15">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="N114" s="15">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="O114" s="15">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="P114" s="15">
         <v>0</v>
       </c>
       <c r="Q114" s="15">
-        <v>2870</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="115" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10656,25 +10656,25 @@
         <v>661</v>
       </c>
       <c r="K115" s="15">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="L115" s="15">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="M115" s="15">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="N115" s="15">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="O115" s="15">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="P115" s="15">
         <v>0</v>
       </c>
       <c r="Q115" s="15">
-        <v>5706</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="116" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10684,43 +10684,43 @@
         <v>117</v>
       </c>
       <c r="E116" s="15">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F116" s="15">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G116" s="15">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="H116" s="15">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I116" s="15">
-        <v>815</v>
+        <v>736</v>
       </c>
       <c r="J116" s="15">
-        <v>864</v>
+        <v>780</v>
       </c>
       <c r="K116" s="15">
-        <v>0</v>
+        <v>891</v>
       </c>
       <c r="L116" s="15">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="M116" s="15">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="N116" s="15">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="O116" s="15">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="P116" s="15">
         <v>0</v>
       </c>
       <c r="Q116" s="15">
-        <v>5045</v>
+        <v>10121</v>
       </c>
     </row>
     <row r="117" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10748,25 +10748,25 @@
         <v>1253</v>
       </c>
       <c r="K117" s="15">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="L117" s="15">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="M117" s="15">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="N117" s="15">
-        <v>0</v>
+        <v>1587</v>
       </c>
       <c r="O117" s="15">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="P117" s="15">
         <v>0</v>
       </c>
       <c r="Q117" s="15">
-        <v>6903</v>
+        <v>13993</v>
       </c>
     </row>
     <row r="118" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" s="43">
         <v>0</v>
@@ -10806,13 +10806,13 @@
         <v>0</v>
       </c>
       <c r="O118" s="43">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P118" s="43">
         <v>0</v>
       </c>
       <c r="Q118" s="43">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10840,25 +10840,25 @@
         <v>7884</v>
       </c>
       <c r="K119" s="93">
-        <v>0</v>
+        <v>8370</v>
       </c>
       <c r="L119" s="93">
-        <v>0</v>
+        <v>9121</v>
       </c>
       <c r="M119" s="93">
-        <v>0</v>
+        <v>8606</v>
       </c>
       <c r="N119" s="93">
-        <v>0</v>
+        <v>9240</v>
       </c>
       <c r="O119" s="93">
-        <v>0</v>
+        <v>9055</v>
       </c>
       <c r="P119" s="93">
         <v>0</v>
       </c>
       <c r="Q119" s="93">
-        <v>52547</v>
+        <v>96939</v>
       </c>
     </row>
     <row r="120" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10886,25 +10886,25 @@
         <v>7858</v>
       </c>
       <c r="K120" s="21">
-        <v>0</v>
+        <v>8343</v>
       </c>
       <c r="L120" s="21">
-        <v>0</v>
+        <v>9080</v>
       </c>
       <c r="M120" s="21">
-        <v>0</v>
+        <v>8575</v>
       </c>
       <c r="N120" s="21">
-        <v>0</v>
+        <v>9191</v>
       </c>
       <c r="O120" s="21">
-        <v>0</v>
+        <v>8954</v>
       </c>
       <c r="P120" s="21">
         <v>0</v>
       </c>
       <c r="Q120" s="21">
-        <v>52242</v>
+        <v>96385</v>
       </c>
     </row>
     <row r="121" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10932,25 +10932,25 @@
         <v>5</v>
       </c>
       <c r="K121" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M121" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N121" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O121" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P121" s="15">
         <v>0</v>
       </c>
       <c r="Q121" s="15">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10978,25 +10978,25 @@
         <v>25</v>
       </c>
       <c r="K122" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L122" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M122" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N122" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O122" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P122" s="15">
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <v>175</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11024,25 +11024,25 @@
         <v>654</v>
       </c>
       <c r="K123" s="15">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="L123" s="15">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="M123" s="15">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="N123" s="15">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="O123" s="15">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="P123" s="15">
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <v>3580</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="124" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11070,25 +11070,25 @@
         <v>209</v>
       </c>
       <c r="K124" s="15">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L124" s="15">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="M124" s="15">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="N124" s="15">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="O124" s="15">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P124" s="15">
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <v>2782</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="125" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11116,25 +11116,25 @@
         <v>6</v>
       </c>
       <c r="K125" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M125" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N125" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O125" s="15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P125" s="15">
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11162,25 +11162,25 @@
         <v>921</v>
       </c>
       <c r="K126" s="15">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="L126" s="15">
-        <v>0</v>
+        <v>882</v>
       </c>
       <c r="M126" s="15">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="N126" s="15">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="O126" s="15">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="P126" s="15">
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <v>4946</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="127" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11208,25 +11208,25 @@
         <v>1972</v>
       </c>
       <c r="K127" s="15">
-        <v>0</v>
+        <v>2159</v>
       </c>
       <c r="L127" s="15">
-        <v>0</v>
+        <v>2265</v>
       </c>
       <c r="M127" s="15">
-        <v>0</v>
+        <v>2129</v>
       </c>
       <c r="N127" s="15">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="O127" s="15">
-        <v>0</v>
+        <v>2569</v>
       </c>
       <c r="P127" s="15">
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <v>13410</v>
+        <v>24623</v>
       </c>
     </row>
     <row r="128" spans="2:17" s="1" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11346,25 +11346,25 @@
         <v>1417</v>
       </c>
       <c r="K130" s="15">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="L130" s="15">
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="M130" s="15">
-        <v>0</v>
+        <v>1701</v>
       </c>
       <c r="N130" s="15">
-        <v>0</v>
+        <v>1904</v>
       </c>
       <c r="O130" s="15">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="P130" s="15">
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <v>11994</v>
+        <v>20693</v>
       </c>
     </row>
     <row r="131" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11392,25 +11392,25 @@
         <v>206</v>
       </c>
       <c r="K131" s="15">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="L131" s="15">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="M131" s="15">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="N131" s="15">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="O131" s="15">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="P131" s="15">
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <v>1190</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="132" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11438,25 +11438,25 @@
         <v>17</v>
       </c>
       <c r="K132" s="15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L132" s="15">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M132" s="15">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N132" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O132" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P132" s="15">
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11484,25 +11484,25 @@
         <v>12</v>
       </c>
       <c r="K133" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L133" s="15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M133" s="15">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N133" s="15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O133" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P133" s="15">
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11530,25 +11530,25 @@
         <v>5</v>
       </c>
       <c r="K134" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L134" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M134" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N134" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O134" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="15">
         <v>0</v>
       </c>
       <c r="Q134" s="15">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="135" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11576,25 +11576,25 @@
         <v>864</v>
       </c>
       <c r="K135" s="15">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="L135" s="15">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="M135" s="15">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="N135" s="15">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="O135" s="15">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="P135" s="15">
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <v>5045</v>
+        <v>10858</v>
       </c>
     </row>
     <row r="136" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11622,25 +11622,25 @@
         <v>1562</v>
       </c>
       <c r="K136" s="15">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="L136" s="15">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="M136" s="15">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="N136" s="15">
-        <v>0</v>
+        <v>1881</v>
       </c>
       <c r="O136" s="15">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="P136" s="15">
         <v>0</v>
       </c>
       <c r="Q136" s="15">
-        <v>9011</v>
+        <v>17619</v>
       </c>
     </row>
     <row r="137" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11668,25 +11668,25 @@
         <v>26</v>
       </c>
       <c r="K137" s="43">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L137" s="43">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M137" s="43">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N137" s="43">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O137" s="43">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="P137" s="43">
         <v>0</v>
       </c>
       <c r="Q137" s="43">
-        <v>305</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11714,25 +11714,25 @@
         <v>1774</v>
       </c>
       <c r="K138" s="93">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="L138" s="93">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="M138" s="93">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="N138" s="93">
-        <v>0</v>
+        <v>1582</v>
       </c>
       <c r="O138" s="93">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="P138" s="93">
         <v>0</v>
       </c>
       <c r="Q138" s="93">
-        <v>11322</v>
+        <v>18956</v>
       </c>
     </row>
     <row r="139" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11760,25 +11760,25 @@
         <v>1774</v>
       </c>
       <c r="K139" s="21">
-        <v>0</v>
+        <v>1502</v>
       </c>
       <c r="L139" s="21">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="M139" s="21">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="N139" s="21">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="O139" s="21">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="P139" s="21">
         <v>0</v>
       </c>
       <c r="Q139" s="21">
-        <v>11285</v>
+        <v>18879</v>
       </c>
     </row>
     <row r="140" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11806,25 +11806,25 @@
         <v>267</v>
       </c>
       <c r="K140" s="15">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="L140" s="15">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="M140" s="15">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="N140" s="15">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="O140" s="15">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="P140" s="15">
         <v>0</v>
       </c>
       <c r="Q140" s="15">
-        <v>1735</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="141" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11852,25 +11852,25 @@
         <v>52</v>
       </c>
       <c r="K141" s="15">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L141" s="15">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="M141" s="15">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N141" s="15">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O141" s="15">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="P141" s="15">
         <v>0</v>
       </c>
       <c r="Q141" s="15">
-        <v>315</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11898,25 +11898,25 @@
         <v>345</v>
       </c>
       <c r="K142" s="15">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="L142" s="15">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M142" s="15">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="N142" s="15">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="O142" s="15">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="P142" s="15">
         <v>0</v>
       </c>
       <c r="Q142" s="15">
-        <v>2987</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="143" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11944,25 +11944,25 @@
         <v>1021</v>
       </c>
       <c r="K143" s="15">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="L143" s="15">
-        <v>0</v>
+        <v>878</v>
       </c>
       <c r="M143" s="15">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="N143" s="15">
-        <v>0</v>
+        <v>916</v>
       </c>
       <c r="O143" s="15">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="P143" s="15">
         <v>0</v>
       </c>
       <c r="Q143" s="15">
-        <v>5623</v>
+        <v>10322</v>
       </c>
     </row>
     <row r="144" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11990,25 +11990,25 @@
         <v>23</v>
       </c>
       <c r="K144" s="15">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L144" s="15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="M144" s="15">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N144" s="15">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="O144" s="15">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="P144" s="15">
         <v>0</v>
       </c>
       <c r="Q144" s="15">
-        <v>123</v>
+        <v>371</v>
       </c>
     </row>
     <row r="145" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12036,25 +12036,25 @@
         <v>66</v>
       </c>
       <c r="K145" s="15">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L145" s="15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M145" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N145" s="15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O145" s="15">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P145" s="15">
         <v>0</v>
       </c>
       <c r="Q145" s="15">
-        <v>502</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="2:17" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12088,19 +12088,19 @@
         <v>0</v>
       </c>
       <c r="M146" s="43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N146" s="43">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O146" s="43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P146" s="43">
         <v>0</v>
       </c>
       <c r="Q146" s="43">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -12117,7 +12117,7 @@
   <dimension ref="B2:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12247,40 +12247,40 @@
         <v>33048</v>
       </c>
       <c r="E7" s="20">
-        <v>34535</v>
+        <v>35696</v>
       </c>
       <c r="F7" s="20">
-        <v>44663</v>
+        <v>45419</v>
       </c>
       <c r="G7" s="20">
         <v>34007</v>
       </c>
       <c r="H7" s="20">
-        <v>44342</v>
+        <v>45660</v>
       </c>
       <c r="I7" s="20">
         <v>36622</v>
       </c>
       <c r="J7" s="20">
-        <v>0</v>
+        <v>30457</v>
       </c>
       <c r="K7" s="20">
-        <v>0</v>
+        <v>34548</v>
       </c>
       <c r="L7" s="20">
-        <v>0</v>
+        <v>27440</v>
       </c>
       <c r="M7" s="20">
-        <v>0</v>
+        <v>31276</v>
       </c>
       <c r="N7" s="20">
-        <v>0</v>
+        <v>24068</v>
       </c>
       <c r="O7" s="20">
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>227217</v>
+        <v>378241</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -12293,40 +12293,40 @@
         <v>31732</v>
       </c>
       <c r="E8" s="21">
-        <v>32582</v>
+        <v>33743</v>
       </c>
       <c r="F8" s="21">
-        <v>42656</v>
+        <v>43412</v>
       </c>
       <c r="G8" s="21">
         <v>32672</v>
       </c>
       <c r="H8" s="21">
-        <v>42614</v>
+        <v>43932</v>
       </c>
       <c r="I8" s="21">
         <v>34550</v>
       </c>
       <c r="J8" s="21">
-        <v>0</v>
+        <v>28578</v>
       </c>
       <c r="K8" s="21">
-        <v>0</v>
+        <v>32615</v>
       </c>
       <c r="L8" s="21">
-        <v>0</v>
+        <v>25460</v>
       </c>
       <c r="M8" s="21">
-        <v>0</v>
+        <v>29028</v>
       </c>
       <c r="N8" s="21">
-        <v>0</v>
+        <v>22099</v>
       </c>
       <c r="O8" s="21">
         <v>0</v>
       </c>
       <c r="P8" s="21">
-        <v>216806</v>
+        <v>357821</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -12339,40 +12339,40 @@
         <v>26972</v>
       </c>
       <c r="E9" s="15">
-        <v>27230</v>
+        <v>28391</v>
       </c>
       <c r="F9" s="15">
-        <v>35782</v>
+        <v>36538</v>
       </c>
       <c r="G9" s="15">
         <v>27756</v>
       </c>
       <c r="H9" s="15">
-        <v>35288</v>
+        <v>36606</v>
       </c>
       <c r="I9" s="15">
         <v>27583</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>22412</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>25365</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>18823</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>23898</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>16501</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15">
-        <v>180611</v>
+        <v>290845</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -12400,25 +12400,25 @@
         <v>6967</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>6166</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>7250</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>6637</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>5130</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>5598</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>36195</v>
+        <v>66976</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -12446,25 +12446,25 @@
         <v>1389</v>
       </c>
       <c r="J11" s="21">
-        <v>0</v>
+        <v>1352</v>
       </c>
       <c r="K11" s="21">
-        <v>0</v>
+        <v>1434</v>
       </c>
       <c r="L11" s="21">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="M11" s="21">
-        <v>0</v>
+        <v>1839</v>
       </c>
       <c r="N11" s="21">
-        <v>0</v>
+        <v>1555</v>
       </c>
       <c r="O11" s="21">
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>8162</v>
+        <v>15861</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -12492,25 +12492,25 @@
         <v>146</v>
       </c>
       <c r="J12" s="15">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M12" s="15">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N12" s="15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O12" s="15">
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <v>582</v>
+        <v>799</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -12538,25 +12538,25 @@
         <v>93</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="N13" s="15">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="O13" s="15">
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>1065</v>
+        <v>2033</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -12584,25 +12584,25 @@
         <v>13</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M14" s="15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N14" s="15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="O14" s="15">
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>431</v>
+        <v>685</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -12630,25 +12630,25 @@
         <v>375</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="L15" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="N15" s="15">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>2306</v>
+        <v>4308</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -12676,25 +12676,25 @@
         <v>762</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>872</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>857</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O16" s="15">
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>3778</v>
+        <v>8036</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -12722,25 +12722,25 @@
         <v>683</v>
       </c>
       <c r="J17" s="21">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="K17" s="21">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="L17" s="21">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="M17" s="21">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="N17" s="21">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="O17" s="21">
         <v>0</v>
       </c>
       <c r="P17" s="21">
-        <v>2249</v>
+        <v>4559</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -12768,25 +12768,25 @@
         <v>322</v>
       </c>
       <c r="J18" s="42">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="K18" s="42">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="L18" s="42">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="M18" s="42">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="N18" s="42">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="O18" s="42">
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <v>897</v>
+        <v>1975</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -12814,25 +12814,25 @@
         <v>361</v>
       </c>
       <c r="J19" s="41">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="K19" s="41">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="L19" s="41">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="M19" s="41">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="N19" s="41">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="O19" s="41">
         <v>0</v>
       </c>
       <c r="P19" s="33">
-        <v>1352</v>
+        <v>2584</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -12850,7 +12850,7 @@
   <dimension ref="B3:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12995,25 +12995,25 @@
         <v>189182</v>
       </c>
       <c r="J8" s="20">
-        <v>0</v>
+        <v>183016</v>
       </c>
       <c r="K8" s="20">
-        <v>0</v>
+        <v>226954</v>
       </c>
       <c r="L8" s="20">
-        <v>0</v>
+        <v>208889</v>
       </c>
       <c r="M8" s="20">
-        <v>0</v>
+        <v>199758</v>
       </c>
       <c r="N8" s="20">
-        <v>0</v>
+        <v>202675</v>
       </c>
       <c r="O8" s="20">
         <v>0</v>
       </c>
       <c r="P8" s="20">
-        <v>1131968</v>
+        <v>2153260</v>
       </c>
       <c r="Q8" s="3"/>
     </row>
@@ -13041,25 +13041,25 @@
         <v>180204</v>
       </c>
       <c r="J9" s="21">
-        <v>0</v>
+        <v>174364</v>
       </c>
       <c r="K9" s="21">
-        <v>0</v>
+        <v>215283</v>
       </c>
       <c r="L9" s="21">
-        <v>0</v>
+        <v>198804</v>
       </c>
       <c r="M9" s="21">
-        <v>0</v>
+        <v>187182</v>
       </c>
       <c r="N9" s="21">
-        <v>0</v>
+        <v>190758</v>
       </c>
       <c r="O9" s="21">
         <v>0</v>
       </c>
       <c r="P9" s="21">
-        <v>1075256</v>
+        <v>2041647</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
@@ -13084,28 +13084,28 @@
         <v>175051</v>
       </c>
       <c r="I10" s="15">
-        <v>142612</v>
+        <v>142727</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>141859</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>173693</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>159503</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>149725</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>155517</v>
       </c>
       <c r="O10" s="15">
         <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>871628</v>
+        <v>1652040</v>
       </c>
       <c r="Q10" s="3"/>
     </row>
@@ -13130,28 +13130,28 @@
         <v>42524</v>
       </c>
       <c r="I11" s="15">
-        <v>37592</v>
+        <v>37477</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <v>32505</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>41590</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <v>39301</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <v>37457</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <v>35241</v>
       </c>
       <c r="O11" s="15">
         <v>0</v>
       </c>
       <c r="P11" s="15">
-        <v>203628</v>
+        <v>389607</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -13179,25 +13179,25 @@
         <v>7029</v>
       </c>
       <c r="J12" s="21">
-        <v>0</v>
+        <v>6749</v>
       </c>
       <c r="K12" s="21">
-        <v>0</v>
+        <v>9623</v>
       </c>
       <c r="L12" s="21">
-        <v>0</v>
+        <v>8220</v>
       </c>
       <c r="M12" s="21">
-        <v>0</v>
+        <v>10478</v>
       </c>
       <c r="N12" s="21">
-        <v>0</v>
+        <v>10030</v>
       </c>
       <c r="O12" s="21">
         <v>0</v>
       </c>
       <c r="P12" s="21">
-        <v>47173</v>
+        <v>92273</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -13225,16 +13225,16 @@
         <v>35</v>
       </c>
       <c r="J13" s="15">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K13" s="15">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M13" s="15">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="N13" s="15">
         <v>0</v>
@@ -13243,7 +13243,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <v>734</v>
+        <v>1053</v>
       </c>
       <c r="Q13" s="3"/>
     </row>
@@ -13271,25 +13271,25 @@
         <v>758</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="K14" s="15">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="L14" s="15">
-        <v>0</v>
+        <v>971</v>
       </c>
       <c r="M14" s="15">
-        <v>0</v>
+        <v>1947</v>
       </c>
       <c r="N14" s="15">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="O14" s="15">
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <v>7236</v>
+        <v>13863</v>
       </c>
       <c r="Q14" s="3"/>
     </row>
@@ -13317,25 +13317,25 @@
         <v>117</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="L15" s="15">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="M15" s="15">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="N15" s="15">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="O15" s="15">
         <v>0</v>
       </c>
       <c r="P15" s="15">
-        <v>1475</v>
+        <v>2780</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
@@ -13363,25 +13363,25 @@
         <v>2083</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>1609</v>
       </c>
       <c r="K16" s="15">
-        <v>0</v>
+        <v>2165</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <v>2806</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <v>2258</v>
       </c>
       <c r="O16" s="15">
         <v>0</v>
       </c>
       <c r="P16" s="15">
-        <v>13265</v>
+        <v>23994</v>
       </c>
       <c r="Q16" s="3"/>
     </row>
@@ -13409,25 +13409,25 @@
         <v>4036</v>
       </c>
       <c r="J17" s="15">
-        <v>0</v>
+        <v>3899</v>
       </c>
       <c r="K17" s="15">
-        <v>0</v>
+        <v>5942</v>
       </c>
       <c r="L17" s="15">
-        <v>0</v>
+        <v>5193</v>
       </c>
       <c r="M17" s="15">
-        <v>0</v>
+        <v>5334</v>
       </c>
       <c r="N17" s="15">
-        <v>0</v>
+        <v>5752</v>
       </c>
       <c r="O17" s="15">
         <v>0</v>
       </c>
       <c r="P17" s="15">
-        <v>24463</v>
+        <v>50583</v>
       </c>
       <c r="Q17" s="3"/>
     </row>
@@ -13455,25 +13455,25 @@
         <v>1949</v>
       </c>
       <c r="J18" s="21">
-        <v>0</v>
+        <v>1903</v>
       </c>
       <c r="K18" s="21">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="L18" s="21">
-        <v>0</v>
+        <v>1865</v>
       </c>
       <c r="M18" s="21">
-        <v>0</v>
+        <v>2098</v>
       </c>
       <c r="N18" s="21">
-        <v>0</v>
+        <v>1887</v>
       </c>
       <c r="O18" s="21">
         <v>0</v>
       </c>
       <c r="P18" s="21">
-        <v>9539</v>
+        <v>19340</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
@@ -13501,25 +13501,25 @@
         <v>518</v>
       </c>
       <c r="J19" s="42">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="K19" s="42">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="L19" s="42">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="M19" s="42">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="N19" s="42">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="O19" s="42">
         <v>0</v>
       </c>
       <c r="P19" s="15">
-        <v>1624</v>
+        <v>3509</v>
       </c>
       <c r="Q19" s="3"/>
     </row>
@@ -13547,25 +13547,25 @@
         <v>1431</v>
       </c>
       <c r="J20" s="41">
-        <v>0</v>
+        <v>1617</v>
       </c>
       <c r="K20" s="41">
-        <v>0</v>
+        <v>1699</v>
       </c>
       <c r="L20" s="41">
-        <v>0</v>
+        <v>1449</v>
       </c>
       <c r="M20" s="41">
-        <v>0</v>
+        <v>1629</v>
       </c>
       <c r="N20" s="41">
-        <v>0</v>
+        <v>1522</v>
       </c>
       <c r="O20" s="41">
         <v>0</v>
       </c>
       <c r="P20" s="33">
-        <v>7915</v>
+        <v>15831</v>
       </c>
       <c r="Q20" s="3"/>
     </row>
@@ -13583,7 +13583,7 @@
   <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13730,25 +13730,25 @@
         <v>1367</v>
       </c>
       <c r="J7" s="20">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="K7" s="20">
-        <v>0</v>
+        <v>1383</v>
       </c>
       <c r="L7" s="20">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="M7" s="20">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="N7" s="20">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="O7" s="20">
         <v>0</v>
       </c>
       <c r="P7" s="20">
-        <v>8563</v>
+        <v>13872</v>
       </c>
       <c r="Q7" s="3"/>
     </row>
@@ -13914,25 +13914,25 @@
         <v>956</v>
       </c>
       <c r="J11" s="21">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="K11" s="21">
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="L11" s="21">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="M11" s="21">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="N11" s="21">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="O11" s="21">
         <v>0</v>
       </c>
       <c r="P11" s="21">
-        <v>6826</v>
+        <v>10633</v>
       </c>
       <c r="Q11" s="3"/>
     </row>
@@ -13960,25 +13960,25 @@
         <v>411</v>
       </c>
       <c r="J12" s="43">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="K12" s="43">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="L12" s="43">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="M12" s="43">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N12" s="43">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="O12" s="43">
         <v>0</v>
       </c>
       <c r="P12" s="43">
-        <v>1737</v>
+        <v>3239</v>
       </c>
       <c r="Q12" s="3"/>
     </row>
@@ -14062,43 +14062,43 @@
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="106">
-        <v>709145.12</v>
+        <v>709145</v>
       </c>
       <c r="E21" s="106">
-        <v>942849.93479999993</v>
+        <v>942850</v>
       </c>
       <c r="F21" s="106">
-        <v>1118570.7837559998</v>
+        <v>1118571</v>
       </c>
       <c r="G21" s="106">
-        <v>905331.81156696007</v>
+        <v>905332</v>
       </c>
       <c r="H21" s="106">
-        <v>1065524.6395590352</v>
+        <v>1065525</v>
       </c>
       <c r="I21" s="106">
-        <v>1001109.4199487215</v>
+        <v>1001109</v>
       </c>
       <c r="J21" s="106">
-        <v>0</v>
+        <v>994839</v>
       </c>
       <c r="K21" s="106">
-        <v>0</v>
+        <v>975985.00474705221</v>
       </c>
       <c r="L21" s="106">
-        <v>0</v>
+        <v>759756.34761426295</v>
       </c>
       <c r="M21" s="106">
-        <v>0</v>
+        <v>876867.97293799161</v>
       </c>
       <c r="N21" s="106">
-        <v>0</v>
+        <v>744546.53720991267</v>
       </c>
       <c r="O21" s="106">
         <v>0</v>
       </c>
       <c r="P21" s="106">
-        <v>5742531.7096307166</v>
+        <v>10094526.862509219</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
@@ -14197,19 +14197,19 @@
         <v>99676</v>
       </c>
       <c r="J30" s="106">
-        <v>0</v>
+        <v>99579</v>
       </c>
       <c r="K30" s="106">
-        <v>0</v>
+        <v>100126</v>
       </c>
       <c r="L30" s="106">
-        <v>0</v>
+        <v>100566</v>
       </c>
       <c r="M30" s="106">
-        <v>0</v>
+        <v>100642</v>
       </c>
       <c r="N30" s="106">
-        <v>0</v>
+        <v>101172</v>
       </c>
       <c r="O30" s="106">
         <v>0</v>
